--- a/storage/app/candidate.xlsx
+++ b/storage/app/candidate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6129E7C1-434A-41B7-802B-453465ABE051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040F376C-2A97-4E03-9237-6A69EFA644E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12016" uniqueCount="2866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12556" uniqueCount="3052">
   <si>
     <t>name</t>
   </si>
@@ -8618,6 +8618,564 @@
   </si>
   <si>
     <t>M1-W007</t>
+  </si>
+  <si>
+    <t>doctor_date</t>
+  </si>
+  <si>
+    <t>6x25x2019</t>
+  </si>
+  <si>
+    <t>7x17x2019</t>
+  </si>
+  <si>
+    <t>7x26x2019</t>
+  </si>
+  <si>
+    <t>8x1x2019</t>
+  </si>
+  <si>
+    <t>8x8x2019</t>
+  </si>
+  <si>
+    <t>8x13x2019</t>
+  </si>
+  <si>
+    <t>8x19x2019</t>
+  </si>
+  <si>
+    <t>8x20x2019</t>
+  </si>
+  <si>
+    <t>8x21x2019</t>
+  </si>
+  <si>
+    <t>8x22x2019</t>
+  </si>
+  <si>
+    <t>8x23x2019</t>
+  </si>
+  <si>
+    <t>8x26x2019</t>
+  </si>
+  <si>
+    <t>8x27x2019</t>
+  </si>
+  <si>
+    <t>8x28x2019</t>
+  </si>
+  <si>
+    <t>8x29x2019</t>
+  </si>
+  <si>
+    <t>8x30x2019</t>
+  </si>
+  <si>
+    <t>9x2x2019</t>
+  </si>
+  <si>
+    <t>9x3x2019</t>
+  </si>
+  <si>
+    <t>9x4x2019</t>
+  </si>
+  <si>
+    <t>9x5x2019</t>
+  </si>
+  <si>
+    <t>9x6x2019</t>
+  </si>
+  <si>
+    <t>9x9x2019</t>
+  </si>
+  <si>
+    <t>9x10x2019</t>
+  </si>
+  <si>
+    <t>9x12x2019</t>
+  </si>
+  <si>
+    <t>9x13x2019</t>
+  </si>
+  <si>
+    <t>9x15x2019</t>
+  </si>
+  <si>
+    <t>9x16x2019</t>
+  </si>
+  <si>
+    <t>9x17x2019</t>
+  </si>
+  <si>
+    <t>9x18x2019</t>
+  </si>
+  <si>
+    <t>9x19x2019</t>
+  </si>
+  <si>
+    <t>9x20x2019</t>
+  </si>
+  <si>
+    <t>9x21x2019</t>
+  </si>
+  <si>
+    <t>9x23x2019</t>
+  </si>
+  <si>
+    <t>9x24x2019</t>
+  </si>
+  <si>
+    <t>9x27x2019</t>
+  </si>
+  <si>
+    <t>9x30x2019</t>
+  </si>
+  <si>
+    <t>10x1x2019</t>
+  </si>
+  <si>
+    <t>10x2x2019</t>
+  </si>
+  <si>
+    <t>10x3x2019</t>
+  </si>
+  <si>
+    <t>10x4x2019</t>
+  </si>
+  <si>
+    <t>10x7x2019</t>
+  </si>
+  <si>
+    <t>10x11x2019</t>
+  </si>
+  <si>
+    <t>10x15x2019</t>
+  </si>
+  <si>
+    <t>10x16x2019</t>
+  </si>
+  <si>
+    <t>10x17x2019</t>
+  </si>
+  <si>
+    <t>10x18x2019</t>
+  </si>
+  <si>
+    <t>10x21x2019</t>
+  </si>
+  <si>
+    <t>10x22x2019</t>
+  </si>
+  <si>
+    <t>10x23x2019</t>
+  </si>
+  <si>
+    <t>10x24x2019</t>
+  </si>
+  <si>
+    <t>10x29x2019</t>
+  </si>
+  <si>
+    <t>11x6x2019</t>
+  </si>
+  <si>
+    <t>11x7x2019</t>
+  </si>
+  <si>
+    <t>11x8x2019</t>
+  </si>
+  <si>
+    <t>11x12x2019</t>
+  </si>
+  <si>
+    <t>11x13x2019</t>
+  </si>
+  <si>
+    <t>11x15x2019</t>
+  </si>
+  <si>
+    <t>11x18x2019</t>
+  </si>
+  <si>
+    <t>11x19x2019</t>
+  </si>
+  <si>
+    <t>11x21x2019</t>
+  </si>
+  <si>
+    <t>11x26x2019</t>
+  </si>
+  <si>
+    <t>11x27x2019</t>
+  </si>
+  <si>
+    <t>12x3x2019</t>
+  </si>
+  <si>
+    <t>12x5x2019</t>
+  </si>
+  <si>
+    <t>12x10x2019</t>
+  </si>
+  <si>
+    <t>12x12x2019</t>
+  </si>
+  <si>
+    <t>12x16x2019</t>
+  </si>
+  <si>
+    <t>12x17x2019</t>
+  </si>
+  <si>
+    <t>12x19x2019</t>
+  </si>
+  <si>
+    <t>12x23x2019</t>
+  </si>
+  <si>
+    <t>12x31x2019</t>
+  </si>
+  <si>
+    <t>1x3x2020</t>
+  </si>
+  <si>
+    <t>1x9x2020</t>
+  </si>
+  <si>
+    <t>1x17x2020</t>
+  </si>
+  <si>
+    <t>1x21x2020</t>
+  </si>
+  <si>
+    <t>1x22x2020</t>
+  </si>
+  <si>
+    <t>1x24x2020</t>
+  </si>
+  <si>
+    <t>1x28x2020</t>
+  </si>
+  <si>
+    <t>1x31x2020</t>
+  </si>
+  <si>
+    <t>2x3x2020</t>
+  </si>
+  <si>
+    <t>2x4x2020</t>
+  </si>
+  <si>
+    <t>2x5x2020</t>
+  </si>
+  <si>
+    <t>2x10x2020</t>
+  </si>
+  <si>
+    <t>2x11x2020</t>
+  </si>
+  <si>
+    <t>2x13x2020</t>
+  </si>
+  <si>
+    <t>2x14x2020</t>
+  </si>
+  <si>
+    <t>2x17x2020</t>
+  </si>
+  <si>
+    <t>2x18x2020</t>
+  </si>
+  <si>
+    <t>2x19x2020</t>
+  </si>
+  <si>
+    <t>2x20x2020</t>
+  </si>
+  <si>
+    <t>2x25x2020</t>
+  </si>
+  <si>
+    <t>2x28x2020</t>
+  </si>
+  <si>
+    <t>3x2x2020</t>
+  </si>
+  <si>
+    <t>3x3x2020</t>
+  </si>
+  <si>
+    <t>3x4x2020</t>
+  </si>
+  <si>
+    <t>3x10x2020</t>
+  </si>
+  <si>
+    <t>6x30x2020</t>
+  </si>
+  <si>
+    <t>7x1x2020</t>
+  </si>
+  <si>
+    <t>7x9x2020</t>
+  </si>
+  <si>
+    <t>7x10x2020</t>
+  </si>
+  <si>
+    <t>7x14x2020</t>
+  </si>
+  <si>
+    <t>7x21x2020</t>
+  </si>
+  <si>
+    <t>7x29x2020</t>
+  </si>
+  <si>
+    <t>8x2x2020</t>
+  </si>
+  <si>
+    <t>8x3x2020</t>
+  </si>
+  <si>
+    <t>8x7x2020</t>
+  </si>
+  <si>
+    <t>8x11x2020</t>
+  </si>
+  <si>
+    <t>8x12x2020</t>
+  </si>
+  <si>
+    <t>8x13x2020</t>
+  </si>
+  <si>
+    <t>8x16x2020</t>
+  </si>
+  <si>
+    <t>8x18x2020</t>
+  </si>
+  <si>
+    <t>8x20x2020</t>
+  </si>
+  <si>
+    <t>8x25x2020</t>
+  </si>
+  <si>
+    <t>8x27x2020</t>
+  </si>
+  <si>
+    <t>8x28x2020</t>
+  </si>
+  <si>
+    <t>9x1x2020</t>
+  </si>
+  <si>
+    <t>9x3x2020</t>
+  </si>
+  <si>
+    <t>9x9x2020</t>
+  </si>
+  <si>
+    <t>3x5x2020</t>
+  </si>
+  <si>
+    <t>9x15x2020</t>
+  </si>
+  <si>
+    <t>9x18x2020</t>
+  </si>
+  <si>
+    <t>9x22x2020</t>
+  </si>
+  <si>
+    <t>9x24x2020</t>
+  </si>
+  <si>
+    <t>9x25x2020</t>
+  </si>
+  <si>
+    <t>9x29x2020</t>
+  </si>
+  <si>
+    <t>9x30x2020</t>
+  </si>
+  <si>
+    <t>10x22x2020</t>
+  </si>
+  <si>
+    <t>10x26x2020</t>
+  </si>
+  <si>
+    <t>10x19x2020</t>
+  </si>
+  <si>
+    <t>9x28x2020</t>
+  </si>
+  <si>
+    <t>8x31x2020</t>
+  </si>
+  <si>
+    <t>10x15x2020</t>
+  </si>
+  <si>
+    <t>10x20x2020</t>
+  </si>
+  <si>
+    <t>10x6x2020</t>
+  </si>
+  <si>
+    <t>11x2x2020</t>
+  </si>
+  <si>
+    <t>10x28x2020</t>
+  </si>
+  <si>
+    <t>10x8x2020</t>
+  </si>
+  <si>
+    <t>10x5x2020</t>
+  </si>
+  <si>
+    <t>10x2x2020</t>
+  </si>
+  <si>
+    <t>9x10x2020</t>
+  </si>
+  <si>
+    <t>11x24x2020</t>
+  </si>
+  <si>
+    <t>11x16x2020</t>
+  </si>
+  <si>
+    <t>11x18x2020</t>
+  </si>
+  <si>
+    <t>11x12x2020</t>
+  </si>
+  <si>
+    <t>12x3x2020</t>
+  </si>
+  <si>
+    <t>12x8x2020</t>
+  </si>
+  <si>
+    <t>11x23x2020</t>
+  </si>
+  <si>
+    <t>12x16x2020</t>
+  </si>
+  <si>
+    <t>12x9x2020</t>
+  </si>
+  <si>
+    <t>12x14x2020</t>
+  </si>
+  <si>
+    <t>12x18x2020</t>
+  </si>
+  <si>
+    <t>12x21x2020</t>
+  </si>
+  <si>
+    <t>12x11x2020</t>
+  </si>
+  <si>
+    <t>12x17x2020</t>
+  </si>
+  <si>
+    <t>1x8x2021</t>
+  </si>
+  <si>
+    <t>1x26x2021</t>
+  </si>
+  <si>
+    <t>10x12x2020</t>
+  </si>
+  <si>
+    <t>1x22x2021</t>
+  </si>
+  <si>
+    <t>2x3x2021</t>
+  </si>
+  <si>
+    <t>1x20x2021</t>
+  </si>
+  <si>
+    <t>1x12x2021</t>
+  </si>
+  <si>
+    <t>2x5x2021</t>
+  </si>
+  <si>
+    <t>2x15x2021</t>
+  </si>
+  <si>
+    <t>1x28x2021</t>
+  </si>
+  <si>
+    <t>2x16x2021</t>
+  </si>
+  <si>
+    <t>2x11x2021</t>
+  </si>
+  <si>
+    <t>2x9x2021</t>
+  </si>
+  <si>
+    <t>2x18x2021</t>
+  </si>
+  <si>
+    <t>2x19x2021</t>
+  </si>
+  <si>
+    <t>2x17x2021</t>
+  </si>
+  <si>
+    <t>12x28x2020</t>
+  </si>
+  <si>
+    <t>2x12x2021</t>
+  </si>
+  <si>
+    <t>2x24x2021</t>
+  </si>
+  <si>
+    <t>3x10x2021</t>
+  </si>
+  <si>
+    <t>3x25x2021</t>
+  </si>
+  <si>
+    <t>3x23x2021</t>
+  </si>
+  <si>
+    <t>3x15x2021</t>
+  </si>
+  <si>
+    <t>3x5x2021</t>
+  </si>
+  <si>
+    <t>3x4x2021</t>
+  </si>
+  <si>
+    <t>3x8x2021</t>
+  </si>
+  <si>
+    <t>3x24x2021</t>
+  </si>
+  <si>
+    <t>3x29x2021</t>
+  </si>
+  <si>
+    <t>3x30x2021</t>
+  </si>
+  <si>
+    <t>4x6x2021</t>
+  </si>
+  <si>
+    <t>4x8x2021</t>
   </si>
 </sst>
 </file>
@@ -8777,7 +9335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9002,6 +9560,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9255,7 +9819,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9475,6 +10039,10 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="18" fillId="41" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="41" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="18" fillId="41" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9831,10 +10399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE540"/>
+  <dimension ref="A1:AF540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9866,9 +10434,10 @@
     <col min="29" max="29" width="19.28515625" customWidth="1"/>
     <col min="30" max="30" width="29.42578125" customWidth="1"/>
     <col min="31" max="31" width="17.140625" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9962,8 +10531,11 @@
       <c r="AE1" s="158" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="169" t="s">
+        <v>2866</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -10049,8 +10621,11 @@
       <c r="AE2" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF2" s="171" t="s">
+        <v>2867</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
@@ -10132,8 +10707,11 @@
       </c>
       <c r="AD3" s="150"/>
       <c r="AE3" s="155"/>
+      <c r="AF3" s="171" t="s">
+        <v>2868</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -10225,8 +10803,11 @@
       <c r="AE4" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF4" s="171" t="s">
+        <v>2869</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -10314,8 +10895,11 @@
       <c r="AE5" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF5" s="171" t="s">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -10403,8 +10987,11 @@
       <c r="AE6" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF6" s="171" t="s">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2026</v>
       </c>
@@ -10494,8 +11081,11 @@
         <v>85</v>
       </c>
       <c r="AE7" s="155"/>
+      <c r="AF7" s="171" t="s">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -10577,8 +11167,11 @@
       </c>
       <c r="AD8" s="150"/>
       <c r="AE8" s="155"/>
+      <c r="AF8" s="171" t="s">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -10664,8 +11257,11 @@
       <c r="AE9" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF9" s="171" t="s">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
@@ -10751,8 +11347,11 @@
       </c>
       <c r="AD10" s="150"/>
       <c r="AE10" s="155"/>
+      <c r="AF10" s="171" t="s">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>98</v>
       </c>
@@ -10842,8 +11441,11 @@
       <c r="AE11" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF11" s="171" t="s">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
@@ -10931,8 +11533,11 @@
       <c r="AE12" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF12" s="171" t="s">
+        <v>2871</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>112</v>
       </c>
@@ -11020,8 +11625,11 @@
       <c r="AE13" s="157" t="s">
         <v>116</v>
       </c>
+      <c r="AF13" s="171" t="s">
+        <v>2871</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>117</v>
       </c>
@@ -11113,8 +11721,11 @@
       <c r="AE14" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF14" s="171" t="s">
+        <v>2871</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>122</v>
       </c>
@@ -11206,8 +11817,11 @@
       <c r="AE15" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF15" s="171" t="s">
+        <v>2871</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>126</v>
       </c>
@@ -11297,8 +11911,11 @@
       <c r="AE16" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF16" s="171" t="s">
+        <v>2872</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>137</v>
       </c>
@@ -11388,8 +12005,11 @@
       <c r="AE17" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF17" s="171" t="s">
+        <v>2872</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>142</v>
       </c>
@@ -11481,8 +12101,11 @@
       <c r="AE18" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF18" s="171" t="s">
+        <v>2873</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>153</v>
       </c>
@@ -11574,8 +12197,11 @@
       <c r="AE19" s="157" t="s">
         <v>159</v>
       </c>
+      <c r="AF19" s="171" t="s">
+        <v>2873</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>160</v>
       </c>
@@ -11663,8 +12289,11 @@
       <c r="AE20" s="157" t="s">
         <v>164</v>
       </c>
+      <c r="AF20" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>165</v>
       </c>
@@ -11754,8 +12383,11 @@
       <c r="AE21" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF21" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -11845,8 +12477,11 @@
       <c r="AE22" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF22" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>177</v>
       </c>
@@ -11934,8 +12569,11 @@
       <c r="AE23" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF23" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>183</v>
       </c>
@@ -12025,8 +12663,11 @@
       <c r="AE24" s="157" t="s">
         <v>187</v>
       </c>
+      <c r="AF24" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>188</v>
       </c>
@@ -12118,8 +12759,11 @@
       <c r="AE25" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF25" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>2027</v>
       </c>
@@ -12209,8 +12853,11 @@
       <c r="AE26" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF26" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>137</v>
       </c>
@@ -12302,8 +12949,11 @@
       <c r="AE27" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF27" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>198</v>
       </c>
@@ -12397,8 +13047,11 @@
       <c r="AE28" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF28" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>204</v>
       </c>
@@ -12484,8 +13137,11 @@
       <c r="AE29" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF29" s="171" t="s">
+        <v>2874</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>2028</v>
       </c>
@@ -12573,8 +13229,11 @@
       <c r="AE30" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF30" s="171" t="s">
+        <v>2875</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2029</v>
       </c>
@@ -12656,8 +13315,11 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="155"/>
+      <c r="AF31" s="171" t="s">
+        <v>2875</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>219</v>
       </c>
@@ -12747,8 +13409,11 @@
       <c r="AE32" s="157" t="s">
         <v>116</v>
       </c>
+      <c r="AF32" s="171" t="s">
+        <v>2876</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>2030</v>
       </c>
@@ -12834,8 +13499,11 @@
       <c r="AE33" s="157" t="s">
         <v>231</v>
       </c>
+      <c r="AF33" s="171" t="s">
+        <v>2877</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>142</v>
       </c>
@@ -12927,8 +13595,11 @@
       <c r="AE34" s="157" t="s">
         <v>235</v>
       </c>
+      <c r="AF34" s="171" t="s">
+        <v>2877</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>153</v>
       </c>
@@ -13018,8 +13689,11 @@
       <c r="AE35" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF35" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>242</v>
       </c>
@@ -13105,8 +13779,11 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="155"/>
+      <c r="AF36" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>247</v>
       </c>
@@ -13196,8 +13873,11 @@
       <c r="AE37" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF37" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>252</v>
       </c>
@@ -13287,8 +13967,11 @@
       <c r="AE38" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF38" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>153</v>
       </c>
@@ -13376,8 +14059,11 @@
       <c r="AE39" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF39" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>261</v>
       </c>
@@ -13465,8 +14151,11 @@
         <v>85</v>
       </c>
       <c r="AE40" s="155"/>
+      <c r="AF40" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>267</v>
       </c>
@@ -13552,8 +14241,11 @@
       <c r="AE41" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF41" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>272</v>
       </c>
@@ -13647,8 +14339,11 @@
       <c r="AE42" s="157" t="s">
         <v>278</v>
       </c>
+      <c r="AF42" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>177</v>
       </c>
@@ -13736,8 +14431,11 @@
       <c r="AE43" s="157" t="s">
         <v>283</v>
       </c>
+      <c r="AF43" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>284</v>
       </c>
@@ -13829,8 +14527,11 @@
       <c r="AE44" s="157" t="s">
         <v>292</v>
       </c>
+      <c r="AF44" s="171" t="s">
+        <v>2878</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>2031</v>
       </c>
@@ -13920,8 +14621,11 @@
       <c r="AE45" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF45" s="171" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>297</v>
       </c>
@@ -14007,8 +14711,11 @@
       <c r="AE46" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF46" s="171" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>126</v>
       </c>
@@ -14096,8 +14803,11 @@
       <c r="AE47" s="157" t="s">
         <v>302</v>
       </c>
+      <c r="AF47" s="171" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>303</v>
       </c>
@@ -14189,8 +14899,11 @@
       <c r="AE48" s="157" t="s">
         <v>310</v>
       </c>
+      <c r="AF48" s="171" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>311</v>
       </c>
@@ -14282,8 +14995,11 @@
       <c r="AE49" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF49" s="171" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>2027</v>
       </c>
@@ -14371,8 +15087,11 @@
       <c r="AE50" s="157" t="s">
         <v>321</v>
       </c>
+      <c r="AF50" s="171" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>322</v>
       </c>
@@ -14462,8 +15181,11 @@
       <c r="AE51" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF51" s="171" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>325</v>
       </c>
@@ -14553,8 +15275,11 @@
       <c r="AE52" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF52" s="171" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>153</v>
       </c>
@@ -14644,8 +15369,11 @@
       <c r="AE53" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF53" s="171" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>30</v>
       </c>
@@ -14733,8 +15461,11 @@
         <v>85</v>
       </c>
       <c r="AE54" s="155"/>
+      <c r="AF54" s="171" t="s">
+        <v>2880</v>
+      </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>332</v>
       </c>
@@ -14818,8 +15549,11 @@
       <c r="AE55" s="157" t="s">
         <v>335</v>
       </c>
+      <c r="AF55" s="171" t="s">
+        <v>2880</v>
+      </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>336</v>
       </c>
@@ -14907,8 +15641,11 @@
       </c>
       <c r="AD56" s="150"/>
       <c r="AE56" s="155"/>
+      <c r="AF56" s="171" t="s">
+        <v>2880</v>
+      </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>341</v>
       </c>
@@ -15000,8 +15737,11 @@
       <c r="AE57" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF57" s="171" t="s">
+        <v>2880</v>
+      </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>347</v>
       </c>
@@ -15089,8 +15829,11 @@
       <c r="AE58" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF58" s="171" t="s">
+        <v>2881</v>
+      </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>355</v>
       </c>
@@ -15178,8 +15921,11 @@
       <c r="AE59" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF59" s="171" t="s">
+        <v>2882</v>
+      </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>360</v>
       </c>
@@ -15261,8 +16007,11 @@
       </c>
       <c r="AD60" s="150"/>
       <c r="AE60" s="155"/>
+      <c r="AF60" s="171" t="s">
+        <v>2882</v>
+      </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>336</v>
       </c>
@@ -15354,8 +16103,11 @@
       <c r="AE61" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF61" s="171" t="s">
+        <v>2882</v>
+      </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>370</v>
       </c>
@@ -15443,8 +16195,11 @@
       <c r="AE62" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF62" s="171" t="s">
+        <v>2882</v>
+      </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>2725</v>
       </c>
@@ -15534,8 +16289,11 @@
       <c r="AE63" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF63" s="171" t="s">
+        <v>2882</v>
+      </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>381</v>
       </c>
@@ -15625,8 +16383,11 @@
       <c r="AE64" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF64" s="171" t="s">
+        <v>2882</v>
+      </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>204</v>
       </c>
@@ -15716,8 +16477,11 @@
       <c r="AE65" s="157" t="s">
         <v>302</v>
       </c>
+      <c r="AF65" s="171" t="s">
+        <v>2882</v>
+      </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>392</v>
       </c>
@@ -15803,8 +16567,11 @@
       <c r="AE66" s="157" t="s">
         <v>278</v>
       </c>
+      <c r="AF66" s="171" t="s">
+        <v>2882</v>
+      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>394</v>
       </c>
@@ -15894,8 +16661,11 @@
       <c r="AE67" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF67" s="171" t="s">
+        <v>2882</v>
+      </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>2030</v>
       </c>
@@ -15985,8 +16755,11 @@
       <c r="AE68" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF68" s="171" t="s">
+        <v>2883</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>404</v>
       </c>
@@ -16076,8 +16849,11 @@
       <c r="AE69" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF69" s="171" t="s">
+        <v>2883</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>410</v>
       </c>
@@ -16169,8 +16945,11 @@
       <c r="AE70" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF70" s="171" t="s">
+        <v>2883</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>416</v>
       </c>
@@ -16256,8 +17035,11 @@
       <c r="AE71" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF71" s="171" t="s">
+        <v>2883</v>
+      </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>2033</v>
       </c>
@@ -16345,8 +17127,11 @@
       <c r="AE72" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF72" s="171" t="s">
+        <v>2883</v>
+      </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>424</v>
       </c>
@@ -16436,8 +17221,11 @@
       <c r="AE73" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF73" s="171" t="s">
+        <v>2884</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>432</v>
       </c>
@@ -16529,8 +17317,11 @@
       <c r="AE74" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF74" s="171" t="s">
+        <v>2884</v>
+      </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>440</v>
       </c>
@@ -16620,8 +17411,11 @@
       <c r="AE75" s="157" t="s">
         <v>116</v>
       </c>
+      <c r="AF75" s="171" t="s">
+        <v>2884</v>
+      </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>2726</v>
       </c>
@@ -16705,8 +17499,11 @@
       </c>
       <c r="AD76" s="150"/>
       <c r="AE76" s="155"/>
+      <c r="AF76" s="171" t="s">
+        <v>2884</v>
+      </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>449</v>
       </c>
@@ -16796,8 +17593,11 @@
       <c r="AE77" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF77" s="171" t="s">
+        <v>2884</v>
+      </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>142</v>
       </c>
@@ -16885,8 +17685,11 @@
       <c r="AE78" s="157" t="s">
         <v>458</v>
       </c>
+      <c r="AF78" s="171" t="s">
+        <v>2884</v>
+      </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>404</v>
       </c>
@@ -16972,8 +17775,11 @@
         <v>72</v>
       </c>
       <c r="AE79" s="155"/>
+      <c r="AF79" s="171" t="s">
+        <v>2885</v>
+      </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>142</v>
       </c>
@@ -17063,8 +17869,11 @@
       <c r="AE80" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF80" s="171" t="s">
+        <v>2885</v>
+      </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>468</v>
       </c>
@@ -17156,8 +17965,11 @@
       <c r="AE81" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF81" s="171" t="s">
+        <v>2885</v>
+      </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>474</v>
       </c>
@@ -17245,8 +18057,11 @@
       <c r="AE82" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF82" s="171" t="s">
+        <v>2885</v>
+      </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>478</v>
       </c>
@@ -17338,8 +18153,11 @@
       <c r="AE83" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF83" s="171" t="s">
+        <v>2885</v>
+      </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>484</v>
       </c>
@@ -17423,8 +18241,11 @@
       </c>
       <c r="AD84" s="150"/>
       <c r="AE84" s="155"/>
+      <c r="AF84" s="171" t="s">
+        <v>2885</v>
+      </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>490</v>
       </c>
@@ -17504,8 +18325,11 @@
       </c>
       <c r="AD85" s="150"/>
       <c r="AE85" s="155"/>
+      <c r="AF85" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>493</v>
       </c>
@@ -17597,8 +18421,11 @@
       <c r="AE86" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF86" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>500</v>
       </c>
@@ -17686,8 +18513,11 @@
       <c r="AE87" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF87" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>503</v>
       </c>
@@ -17775,8 +18605,11 @@
       <c r="AE88" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF88" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>509</v>
       </c>
@@ -17866,8 +18699,11 @@
       <c r="AE89" s="157" t="s">
         <v>512</v>
       </c>
+      <c r="AF89" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>440</v>
       </c>
@@ -17951,8 +18787,11 @@
       </c>
       <c r="AD90" s="150"/>
       <c r="AE90" s="155"/>
+      <c r="AF90" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>98</v>
       </c>
@@ -18044,8 +18883,11 @@
       <c r="AE91" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF91" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>2032</v>
       </c>
@@ -18137,8 +18979,11 @@
       <c r="AE92" s="157" t="s">
         <v>525</v>
       </c>
+      <c r="AF92" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>526</v>
       </c>
@@ -18228,8 +19073,11 @@
       <c r="AE93" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF93" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>2034</v>
       </c>
@@ -18321,8 +19169,11 @@
       <c r="AE94" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF94" s="171" t="s">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>538</v>
       </c>
@@ -18414,8 +19265,11 @@
       <c r="AE95" s="157" t="s">
         <v>542</v>
       </c>
+      <c r="AF95" s="171" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>543</v>
       </c>
@@ -18505,8 +19359,11 @@
       <c r="AE96" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF96" s="171" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>341</v>
       </c>
@@ -18598,8 +19455,11 @@
       <c r="AE97" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF97" s="171" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>2035</v>
       </c>
@@ -18685,8 +19545,11 @@
       <c r="AE98" s="157" t="s">
         <v>555</v>
       </c>
+      <c r="AF98" s="171" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>556</v>
       </c>
@@ -18766,8 +19629,11 @@
         <v>72</v>
       </c>
       <c r="AE99" s="155"/>
+      <c r="AF99" s="171" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>2028</v>
       </c>
@@ -18851,8 +19717,11 @@
       </c>
       <c r="AD100" s="150"/>
       <c r="AE100" s="155"/>
+      <c r="AF100" s="171" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>562</v>
       </c>
@@ -18944,8 +19813,11 @@
       <c r="AE101" s="157" t="s">
         <v>568</v>
       </c>
+      <c r="AF101" s="171" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>468</v>
       </c>
@@ -19039,8 +19911,11 @@
       <c r="AE102" s="157" t="s">
         <v>572</v>
       </c>
+      <c r="AF102" s="171" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>177</v>
       </c>
@@ -19132,8 +20007,11 @@
       <c r="AE103" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF103" s="171" t="s">
+        <v>2888</v>
+      </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>2030</v>
       </c>
@@ -19221,8 +20099,11 @@
       <c r="AE104" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF104" s="171" t="s">
+        <v>2888</v>
+      </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>2036</v>
       </c>
@@ -19314,8 +20195,11 @@
       <c r="AE105" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF105" s="171" t="s">
+        <v>2888</v>
+      </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>2037</v>
       </c>
@@ -19407,8 +20291,11 @@
       <c r="AE106" s="157" t="s">
         <v>458</v>
       </c>
+      <c r="AF106" s="171" t="s">
+        <v>2888</v>
+      </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>468</v>
       </c>
@@ -19486,8 +20373,11 @@
       </c>
       <c r="AD107" s="150"/>
       <c r="AE107" s="155"/>
+      <c r="AF107" s="171" t="s">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>592</v>
       </c>
@@ -19577,8 +20467,11 @@
       <c r="AE108" s="157" t="s">
         <v>597</v>
       </c>
+      <c r="AF108" s="171" t="s">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>252</v>
       </c>
@@ -19670,8 +20563,11 @@
       <c r="AE109" s="157" t="s">
         <v>606</v>
       </c>
+      <c r="AF109" s="171" t="s">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>468</v>
       </c>
@@ -19765,8 +20661,11 @@
       <c r="AE110" s="157" t="s">
         <v>613</v>
       </c>
+      <c r="AF110" s="171" t="s">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>614</v>
       </c>
@@ -19848,8 +20747,11 @@
       <c r="AE111" s="157" t="s">
         <v>292</v>
       </c>
+      <c r="AF111" s="171" t="s">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>2030</v>
       </c>
@@ -19937,8 +20839,11 @@
       <c r="AE112" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF112" s="171" t="s">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>2038</v>
       </c>
@@ -20018,8 +20923,11 @@
         <v>72</v>
       </c>
       <c r="AE113" s="155"/>
+      <c r="AF113" s="171" t="s">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>410</v>
       </c>
@@ -20111,8 +21019,11 @@
       <c r="AE114" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF114" s="171" t="s">
+        <v>2890</v>
+      </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>637</v>
       </c>
@@ -20204,8 +21115,11 @@
       <c r="AE115" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF115" s="171" t="s">
+        <v>2890</v>
+      </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>242</v>
       </c>
@@ -20297,8 +21211,11 @@
       <c r="AE116" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF116" s="171" t="s">
+        <v>2890</v>
+      </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>648</v>
       </c>
@@ -20390,8 +21307,11 @@
       <c r="AE117" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF117" s="171" t="s">
+        <v>2890</v>
+      </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>652</v>
       </c>
@@ -20477,8 +21397,11 @@
       <c r="AE118" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF118" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="119" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>656</v>
       </c>
@@ -20562,8 +21485,11 @@
         <v>62</v>
       </c>
       <c r="AE119" s="155"/>
+      <c r="AF119" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="120" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>2037</v>
       </c>
@@ -20653,8 +21579,11 @@
       <c r="AE120" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF120" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>410</v>
       </c>
@@ -20742,8 +21671,11 @@
       <c r="AE121" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF121" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>86</v>
       </c>
@@ -20831,8 +21763,11 @@
       <c r="AE122" s="157" t="s">
         <v>164</v>
       </c>
+      <c r="AF122" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="123" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>673</v>
       </c>
@@ -20916,8 +21851,11 @@
       <c r="AE123" s="157" t="s">
         <v>302</v>
       </c>
+      <c r="AF123" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>500</v>
       </c>
@@ -21005,8 +21943,11 @@
       <c r="AE124" s="157" t="s">
         <v>512</v>
       </c>
+      <c r="AF124" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>42</v>
       </c>
@@ -21088,8 +22029,11 @@
         <v>85</v>
       </c>
       <c r="AE125" s="155"/>
+      <c r="AF125" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>676</v>
       </c>
@@ -21173,8 +22117,11 @@
       <c r="AE126" s="157" t="s">
         <v>677</v>
       </c>
+      <c r="AF126" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="127" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>678</v>
       </c>
@@ -21262,8 +22209,11 @@
       <c r="AE127" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF127" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="128" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>2028</v>
       </c>
@@ -21343,8 +22293,11 @@
       </c>
       <c r="AD128" s="150"/>
       <c r="AE128" s="155"/>
+      <c r="AF128" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>684</v>
       </c>
@@ -21432,8 +22385,11 @@
       <c r="AE129" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF129" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="130" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>684</v>
       </c>
@@ -21525,8 +22481,11 @@
       <c r="AE130" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF130" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="131" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>503</v>
       </c>
@@ -21618,8 +22577,11 @@
       <c r="AE131" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF131" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="132" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>700</v>
       </c>
@@ -21711,8 +22673,11 @@
       <c r="AE132" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF132" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="133" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>704</v>
       </c>
@@ -21800,8 +22765,11 @@
       <c r="AE133" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF133" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>2026</v>
       </c>
@@ -21893,8 +22861,11 @@
       <c r="AE134" s="157" t="s">
         <v>709</v>
       </c>
+      <c r="AF134" s="171" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>2039</v>
       </c>
@@ -21984,8 +22955,11 @@
       <c r="AE135" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF135" s="171" t="s">
+        <v>2892</v>
+      </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>474</v>
       </c>
@@ -22075,8 +23049,11 @@
       <c r="AE136" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF136" s="171" t="s">
+        <v>2892</v>
+      </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>722</v>
       </c>
@@ -22166,8 +23143,11 @@
       <c r="AE137" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF137" s="171" t="s">
+        <v>2893</v>
+      </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>2727</v>
       </c>
@@ -22247,8 +23227,11 @@
       </c>
       <c r="AD138" s="150"/>
       <c r="AE138" s="155"/>
+      <c r="AF138" s="171" t="s">
+        <v>2893</v>
+      </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>468</v>
       </c>
@@ -22334,8 +23317,11 @@
       </c>
       <c r="AD139" s="150"/>
       <c r="AE139" s="155"/>
+      <c r="AF139" s="171" t="s">
+        <v>2893</v>
+      </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>261</v>
       </c>
@@ -22421,8 +23407,11 @@
       <c r="AE140" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF140" s="171" t="s">
+        <v>2894</v>
+      </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>2032</v>
       </c>
@@ -22510,8 +23499,11 @@
       <c r="AE141" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF141" s="171" t="s">
+        <v>2894</v>
+      </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>42</v>
       </c>
@@ -22605,8 +23597,11 @@
       <c r="AE142" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF142" s="171" t="s">
+        <v>2894</v>
+      </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>747</v>
       </c>
@@ -22696,8 +23691,11 @@
       <c r="AE143" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF143" s="171" t="s">
+        <v>2895</v>
+      </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>754</v>
       </c>
@@ -22789,8 +23787,11 @@
       <c r="AE144" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF144" s="171" t="s">
+        <v>2896</v>
+      </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>759</v>
       </c>
@@ -22876,8 +23877,11 @@
       <c r="AE145" s="157" t="s">
         <v>765</v>
       </c>
+      <c r="AF145" s="171" t="s">
+        <v>2897</v>
+      </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>766</v>
       </c>
@@ -22971,8 +23975,11 @@
       <c r="AE146" s="157" t="s">
         <v>302</v>
       </c>
+      <c r="AF146" s="171" t="s">
+        <v>2897</v>
+      </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>2029</v>
       </c>
@@ -23062,8 +24069,11 @@
       <c r="AE147" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF147" s="171" t="s">
+        <v>2897</v>
+      </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>2040</v>
       </c>
@@ -23155,8 +24165,11 @@
       <c r="AE148" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF148" s="171" t="s">
+        <v>2897</v>
+      </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>780</v>
       </c>
@@ -23242,8 +24255,11 @@
         <v>72</v>
       </c>
       <c r="AE149" s="155"/>
+      <c r="AF149" s="171" t="s">
+        <v>2897</v>
+      </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>2041</v>
       </c>
@@ -23333,8 +24349,11 @@
       <c r="AE150" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF150" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>790</v>
       </c>
@@ -23424,8 +24443,11 @@
       <c r="AE151" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF151" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>42</v>
       </c>
@@ -23513,8 +24535,11 @@
       <c r="AE152" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF152" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>799</v>
       </c>
@@ -23604,8 +24629,11 @@
         <v>72</v>
       </c>
       <c r="AE153" s="155"/>
+      <c r="AF153" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>556</v>
       </c>
@@ -23697,8 +24725,11 @@
       <c r="AE154" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF154" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>813</v>
       </c>
@@ -23790,8 +24821,11 @@
       <c r="AE155" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF155" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>2035</v>
       </c>
@@ -23879,8 +24913,11 @@
       <c r="AE156" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF156" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>341</v>
       </c>
@@ -23968,8 +25005,11 @@
       <c r="AE157" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF157" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>821</v>
       </c>
@@ -24059,8 +25099,11 @@
       <c r="AE158" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF158" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>828</v>
       </c>
@@ -24146,8 +25189,11 @@
       </c>
       <c r="AD159" s="150"/>
       <c r="AE159" s="155"/>
+      <c r="AF159" s="171" t="s">
+        <v>2898</v>
+      </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>2042</v>
       </c>
@@ -24233,8 +25279,11 @@
       <c r="AE160" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF160" s="171" t="s">
+        <v>2899</v>
+      </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>2036</v>
       </c>
@@ -24322,8 +25371,11 @@
       <c r="AE161" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF161" s="171" t="s">
+        <v>2899</v>
+      </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>2034</v>
       </c>
@@ -24411,8 +25463,11 @@
       <c r="AE162" s="157" t="s">
         <v>302</v>
       </c>
+      <c r="AF162" s="171" t="s">
+        <v>2899</v>
+      </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>844</v>
       </c>
@@ -24504,8 +25559,11 @@
       <c r="AE163" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF163" s="171" t="s">
+        <v>2899</v>
+      </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>177</v>
       </c>
@@ -24597,8 +25655,11 @@
       <c r="AE164" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF164" s="171" t="s">
+        <v>2899</v>
+      </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>854</v>
       </c>
@@ -24684,8 +25745,11 @@
       <c r="AE165" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF165" s="171" t="s">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>322</v>
       </c>
@@ -24771,8 +25835,11 @@
         <v>72</v>
       </c>
       <c r="AE166" s="155"/>
+      <c r="AF166" s="171" t="s">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>678</v>
       </c>
@@ -24858,8 +25925,11 @@
       </c>
       <c r="AD167" s="150"/>
       <c r="AE167" s="155"/>
+      <c r="AF167" s="171" t="s">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>869</v>
       </c>
@@ -24941,8 +26011,11 @@
       </c>
       <c r="AD168" s="150"/>
       <c r="AE168" s="155"/>
+      <c r="AF168" s="171" t="s">
+        <v>2901</v>
+      </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>875</v>
       </c>
@@ -25026,8 +26099,11 @@
       <c r="AE169" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF169" s="171" t="s">
+        <v>2902</v>
+      </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>881</v>
       </c>
@@ -25115,8 +26191,11 @@
       </c>
       <c r="AD170" s="150"/>
       <c r="AE170" s="155"/>
+      <c r="AF170" s="171" t="s">
+        <v>2902</v>
+      </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>887</v>
       </c>
@@ -25208,8 +26287,11 @@
       <c r="AE171" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF171" s="171" t="s">
+        <v>2902</v>
+      </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>728</v>
       </c>
@@ -25289,8 +26371,11 @@
       <c r="AE172" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF172" s="171" t="s">
+        <v>2902</v>
+      </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>556</v>
       </c>
@@ -25380,8 +26465,11 @@
       <c r="AE173" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF173" s="171" t="s">
+        <v>2902</v>
+      </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>468</v>
       </c>
@@ -25473,8 +26561,11 @@
       <c r="AE174" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF174" s="171" t="s">
+        <v>2902</v>
+      </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>322</v>
       </c>
@@ -25562,8 +26653,11 @@
       </c>
       <c r="AD175" s="150"/>
       <c r="AE175" s="155"/>
+      <c r="AF175" s="171" t="s">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>468</v>
       </c>
@@ -25655,8 +26749,11 @@
         <v>62</v>
       </c>
       <c r="AE176" s="155"/>
+      <c r="AF176" s="171" t="s">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>912</v>
       </c>
@@ -25746,8 +26843,11 @@
       <c r="AE177" s="157" t="s">
         <v>917</v>
       </c>
+      <c r="AF177" s="171" t="s">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="178" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>42</v>
       </c>
@@ -25831,8 +26931,11 @@
       <c r="AE178" s="157" t="s">
         <v>919</v>
       </c>
+      <c r="AF178" s="171" t="s">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="179" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>920</v>
       </c>
@@ -25920,8 +27023,11 @@
       <c r="AE179" s="157" t="s">
         <v>923</v>
       </c>
+      <c r="AF179" s="171" t="s">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>404</v>
       </c>
@@ -26013,8 +27119,11 @@
       <c r="AE180" s="157" t="s">
         <v>929</v>
       </c>
+      <c r="AF180" s="171" t="s">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>930</v>
       </c>
@@ -26102,8 +27211,11 @@
       <c r="AE181" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF181" s="171" t="s">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>297</v>
       </c>
@@ -26195,8 +27307,11 @@
       <c r="AE182" s="157" t="s">
         <v>940</v>
       </c>
+      <c r="AF182" s="171" t="s">
+        <v>2904</v>
+      </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>556</v>
       </c>
@@ -26288,8 +27403,11 @@
       <c r="AE183" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF183" s="171" t="s">
+        <v>2904</v>
+      </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>322</v>
       </c>
@@ -26375,8 +27493,11 @@
       <c r="AE184" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF184" s="171" t="s">
+        <v>2904</v>
+      </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>948</v>
       </c>
@@ -26464,8 +27585,11 @@
       <c r="AE185" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF185" s="171" t="s">
+        <v>2905</v>
+      </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>204</v>
       </c>
@@ -26551,8 +27675,11 @@
       <c r="AE186" s="157" t="s">
         <v>950</v>
       </c>
+      <c r="AF186" s="171" t="s">
+        <v>2905</v>
+      </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>54</v>
       </c>
@@ -26640,8 +27767,11 @@
       <c r="AE187" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF187" s="171" t="s">
+        <v>2905</v>
+      </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>912</v>
       </c>
@@ -26723,8 +27853,11 @@
       </c>
       <c r="AD188" s="150"/>
       <c r="AE188" s="155"/>
+      <c r="AF188" s="171" t="s">
+        <v>2906</v>
+      </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>2728</v>
       </c>
@@ -26814,8 +27947,11 @@
       <c r="AE189" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF189" s="171" t="s">
+        <v>2906</v>
+      </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>963</v>
       </c>
@@ -26899,8 +28035,11 @@
       </c>
       <c r="AD190" s="150"/>
       <c r="AE190" s="155"/>
+      <c r="AF190" s="171" t="s">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>966</v>
       </c>
@@ -26984,8 +28123,11 @@
       <c r="AE191" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF191" s="171" t="s">
+        <v>2908</v>
+      </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>2035</v>
       </c>
@@ -27069,8 +28211,11 @@
       </c>
       <c r="AD192" s="150"/>
       <c r="AE192" s="155"/>
+      <c r="AF192" s="171" t="s">
+        <v>2909</v>
+      </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>54</v>
       </c>
@@ -27154,8 +28299,11 @@
       </c>
       <c r="AD193" s="150"/>
       <c r="AE193" s="155"/>
+      <c r="AF193" s="171" t="s">
+        <v>2909</v>
+      </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>500</v>
       </c>
@@ -27243,8 +28391,11 @@
       <c r="AE194" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF194" s="171" t="s">
+        <v>2909</v>
+      </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>2043</v>
       </c>
@@ -27328,8 +28479,11 @@
       </c>
       <c r="AD195" s="150"/>
       <c r="AE195" s="155"/>
+      <c r="AF195" s="171" t="s">
+        <v>2910</v>
+      </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>247</v>
       </c>
@@ -27419,8 +28573,11 @@
       <c r="AE196" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF196" s="171" t="s">
+        <v>2911</v>
+      </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>991</v>
       </c>
@@ -27504,8 +28661,11 @@
       <c r="AE197" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF197" s="171" t="s">
+        <v>2911</v>
+      </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>728</v>
       </c>
@@ -27591,8 +28751,11 @@
         <v>85</v>
       </c>
       <c r="AE198" s="155"/>
+      <c r="AF198" s="171" t="s">
+        <v>2912</v>
+      </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>336</v>
       </c>
@@ -27684,8 +28847,11 @@
       <c r="AE199" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF199" s="171" t="s">
+        <v>2912</v>
+      </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>2030</v>
       </c>
@@ -27767,8 +28933,11 @@
       </c>
       <c r="AD200" s="150"/>
       <c r="AE200" s="155"/>
+      <c r="AF200" s="171" t="s">
+        <v>2912</v>
+      </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>325</v>
       </c>
@@ -27856,8 +29025,11 @@
       <c r="AE201" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF201" s="171" t="s">
+        <v>2912</v>
+      </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>160</v>
       </c>
@@ -27943,8 +29115,11 @@
       <c r="AE202" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF202" s="171" t="s">
+        <v>2912</v>
+      </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>648</v>
       </c>
@@ -28030,8 +29205,11 @@
       </c>
       <c r="AD203" s="150"/>
       <c r="AE203" s="155"/>
+      <c r="AF203" s="171" t="s">
+        <v>2912</v>
+      </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>322</v>
       </c>
@@ -28115,8 +29293,11 @@
       </c>
       <c r="AD204" s="150"/>
       <c r="AE204" s="155"/>
+      <c r="AF204" s="171" t="s">
+        <v>2913</v>
+      </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>142</v>
       </c>
@@ -28208,8 +29389,11 @@
       <c r="AE205" s="157" t="s">
         <v>164</v>
       </c>
+      <c r="AF205" s="171" t="s">
+        <v>2913</v>
+      </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -28295,8 +29479,11 @@
       </c>
       <c r="AD206" s="150"/>
       <c r="AE206" s="155"/>
+      <c r="AF206" s="171" t="s">
+        <v>2913</v>
+      </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>322</v>
       </c>
@@ -28384,8 +29571,11 @@
       <c r="AE207" s="157" t="s">
         <v>1036</v>
       </c>
+      <c r="AF207" s="171" t="s">
+        <v>2914</v>
+      </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>219</v>
       </c>
@@ -28467,8 +29657,11 @@
       </c>
       <c r="AD208" s="150"/>
       <c r="AE208" s="155"/>
+      <c r="AF208" s="171" t="s">
+        <v>2914</v>
+      </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>948</v>
       </c>
@@ -28546,8 +29739,11 @@
       </c>
       <c r="AD209" s="150"/>
       <c r="AE209" s="155"/>
+      <c r="AF209" s="171" t="s">
+        <v>2915</v>
+      </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>204</v>
       </c>
@@ -28637,8 +29833,11 @@
       <c r="AE210" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF210" s="171" t="s">
+        <v>2915</v>
+      </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>1046</v>
       </c>
@@ -28726,8 +29925,11 @@
       </c>
       <c r="AD211" s="150"/>
       <c r="AE211" s="155"/>
+      <c r="AF211" s="171" t="s">
+        <v>2915</v>
+      </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>2044</v>
       </c>
@@ -28813,8 +30015,11 @@
       <c r="AE212" s="157" t="s">
         <v>1053</v>
       </c>
+      <c r="AF212" s="171" t="s">
+        <v>2916</v>
+      </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>142</v>
       </c>
@@ -28900,8 +30105,11 @@
       <c r="AE213" s="157" t="s">
         <v>1058</v>
       </c>
+      <c r="AF213" s="171" t="s">
+        <v>2916</v>
+      </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>2045</v>
       </c>
@@ -28983,8 +30191,11 @@
       </c>
       <c r="AD214" s="150"/>
       <c r="AE214" s="155"/>
+      <c r="AF214" s="171" t="s">
+        <v>2917</v>
+      </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>54</v>
       </c>
@@ -29068,8 +30279,11 @@
       </c>
       <c r="AD215" s="150"/>
       <c r="AE215" s="155"/>
+      <c r="AF215" s="171" t="s">
+        <v>2918</v>
+      </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>468</v>
       </c>
@@ -29151,8 +30365,11 @@
       </c>
       <c r="AD216" s="150"/>
       <c r="AE216" s="155"/>
+      <c r="AF216" s="171" t="s">
+        <v>2918</v>
+      </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>1071</v>
       </c>
@@ -29240,8 +30457,11 @@
       <c r="AE217" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF217" s="171" t="s">
+        <v>2919</v>
+      </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>424</v>
       </c>
@@ -29327,8 +30547,11 @@
       <c r="AE218" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF218" s="171" t="s">
+        <v>2919</v>
+      </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>219</v>
       </c>
@@ -29412,8 +30635,11 @@
         <v>40</v>
       </c>
       <c r="AE219" s="155"/>
+      <c r="AF219" s="171" t="s">
+        <v>2920</v>
+      </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>242</v>
       </c>
@@ -29499,8 +30725,11 @@
       <c r="AE220" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF220" s="171" t="s">
+        <v>2920</v>
+      </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>1086</v>
       </c>
@@ -29586,8 +30815,11 @@
         <v>85</v>
       </c>
       <c r="AE221" s="155"/>
+      <c r="AF221" s="171" t="s">
+        <v>2920</v>
+      </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>54</v>
       </c>
@@ -29677,8 +30909,11 @@
       <c r="AE222" s="157" t="s">
         <v>1095</v>
       </c>
+      <c r="AF222" s="171" t="s">
+        <v>2920</v>
+      </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>728</v>
       </c>
@@ -29770,8 +31005,11 @@
       <c r="AE223" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF223" s="171" t="s">
+        <v>2920</v>
+      </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>930</v>
       </c>
@@ -29857,8 +31095,11 @@
       <c r="AE224" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF224" s="171" t="s">
+        <v>2921</v>
+      </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>887</v>
       </c>
@@ -29946,8 +31187,11 @@
       </c>
       <c r="AD225" s="150"/>
       <c r="AE225" s="155"/>
+      <c r="AF225" s="171" t="s">
+        <v>2921</v>
+      </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>766</v>
       </c>
@@ -30037,8 +31281,11 @@
       <c r="AE226" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF226" s="171" t="s">
+        <v>2922</v>
+      </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>2046</v>
       </c>
@@ -30128,8 +31375,11 @@
       <c r="AE227" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF227" s="171" t="s">
+        <v>2922</v>
+      </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>272</v>
       </c>
@@ -30213,8 +31463,11 @@
       </c>
       <c r="AD228" s="150"/>
       <c r="AE228" s="155"/>
+      <c r="AF228" s="171" t="s">
+        <v>2923</v>
+      </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>2041</v>
       </c>
@@ -30304,8 +31557,11 @@
       <c r="AE229" s="157" t="s">
         <v>302</v>
       </c>
+      <c r="AF229" s="171" t="s">
+        <v>2923</v>
+      </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>722</v>
       </c>
@@ -30395,8 +31651,11 @@
       <c r="AE230" s="157" t="s">
         <v>164</v>
       </c>
+      <c r="AF230" s="171" t="s">
+        <v>2923</v>
+      </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>828</v>
       </c>
@@ -30484,8 +31743,11 @@
       <c r="AE231" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF231" s="171" t="s">
+        <v>2924</v>
+      </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>2028</v>
       </c>
@@ -30565,8 +31827,11 @@
       </c>
       <c r="AD232" s="150"/>
       <c r="AE232" s="155"/>
+      <c r="AF232" s="171" t="s">
+        <v>2924</v>
+      </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>74</v>
       </c>
@@ -30650,8 +31915,11 @@
       <c r="AE233" s="157" t="s">
         <v>1134</v>
       </c>
+      <c r="AF233" s="171" t="s">
+        <v>2924</v>
+      </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>2047</v>
       </c>
@@ -30743,8 +32011,11 @@
       <c r="AE234" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF234" s="171" t="s">
+        <v>2924</v>
+      </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>42</v>
       </c>
@@ -30834,8 +32105,11 @@
       <c r="AE235" s="157" t="s">
         <v>302</v>
       </c>
+      <c r="AF235" s="171" t="s">
+        <v>2924</v>
+      </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>881</v>
       </c>
@@ -30907,8 +32181,11 @@
       </c>
       <c r="AD236" s="150"/>
       <c r="AE236" s="155"/>
+      <c r="AF236" s="171" t="s">
+        <v>2924</v>
+      </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>912</v>
       </c>
@@ -30992,8 +32269,11 @@
       </c>
       <c r="AD237" s="150"/>
       <c r="AE237" s="155"/>
+      <c r="AF237" s="171" t="s">
+        <v>2924</v>
+      </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>920</v>
       </c>
@@ -31077,8 +32357,11 @@
       </c>
       <c r="AD238" s="150"/>
       <c r="AE238" s="155"/>
+      <c r="AF238" s="171" t="s">
+        <v>2924</v>
+      </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>1146</v>
       </c>
@@ -31164,8 +32447,11 @@
       <c r="AE239" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF239" s="171" t="s">
+        <v>2925</v>
+      </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>1149</v>
       </c>
@@ -31255,8 +32541,11 @@
       <c r="AE240" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF240" s="171" t="s">
+        <v>2925</v>
+      </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>468</v>
       </c>
@@ -31338,8 +32627,11 @@
       </c>
       <c r="AD241" s="150"/>
       <c r="AE241" s="155"/>
+      <c r="AF241" s="171" t="s">
+        <v>2926</v>
+      </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>1155</v>
       </c>
@@ -31425,8 +32717,11 @@
       <c r="AE242" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF242" s="171" t="s">
+        <v>2926</v>
+      </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>1046</v>
       </c>
@@ -31512,8 +32807,11 @@
         <v>72</v>
       </c>
       <c r="AE243" s="155"/>
+      <c r="AF243" s="171" t="s">
+        <v>2927</v>
+      </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>614</v>
       </c>
@@ -31601,8 +32899,11 @@
       <c r="AE244" s="157" t="s">
         <v>302</v>
       </c>
+      <c r="AF244" s="171" t="s">
+        <v>2927</v>
+      </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>1167</v>
       </c>
@@ -31682,8 +32983,11 @@
       </c>
       <c r="AD245" s="150"/>
       <c r="AE245" s="155"/>
+      <c r="AF245" s="171" t="s">
+        <v>2928</v>
+      </c>
     </row>
-    <row r="246" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>2047</v>
       </c>
@@ -31773,8 +33077,11 @@
       <c r="AE246" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF246" s="171" t="s">
+        <v>2928</v>
+      </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>474</v>
       </c>
@@ -31856,8 +33163,11 @@
         <v>72</v>
       </c>
       <c r="AE247" s="155"/>
+      <c r="AF247" s="171" t="s">
+        <v>2929</v>
+      </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>272</v>
       </c>
@@ -31943,8 +33253,11 @@
       <c r="AE248" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF248" s="171" t="s">
+        <v>2929</v>
+      </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>272</v>
       </c>
@@ -32034,8 +33347,11 @@
       <c r="AE249" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF249" s="171" t="s">
+        <v>2930</v>
+      </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>1177</v>
       </c>
@@ -32119,8 +33435,11 @@
       </c>
       <c r="AD250" s="150"/>
       <c r="AE250" s="155"/>
+      <c r="AF250" s="171" t="s">
+        <v>2930</v>
+      </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>204</v>
       </c>
@@ -32212,8 +33531,11 @@
       <c r="AE251" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF251" s="171" t="s">
+        <v>2930</v>
+      </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>404</v>
       </c>
@@ -32301,8 +33623,11 @@
       <c r="AE252" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF252" s="171" t="s">
+        <v>2931</v>
+      </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>2035</v>
       </c>
@@ -32388,8 +33713,11 @@
       <c r="AE253" s="157" t="s">
         <v>116</v>
       </c>
+      <c r="AF253" s="171" t="s">
+        <v>2931</v>
+      </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>614</v>
       </c>
@@ -32477,8 +33805,11 @@
       </c>
       <c r="AD254" s="150"/>
       <c r="AE254" s="155"/>
+      <c r="AF254" s="171" t="s">
+        <v>2931</v>
+      </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>1194</v>
       </c>
@@ -32558,8 +33889,11 @@
       </c>
       <c r="AD255" s="150"/>
       <c r="AE255" s="155"/>
+      <c r="AF255" s="171" t="s">
+        <v>2931</v>
+      </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>728</v>
       </c>
@@ -32649,8 +33983,11 @@
       <c r="AE256" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF256" s="171" t="s">
+        <v>2932</v>
+      </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>404</v>
       </c>
@@ -32728,8 +34065,11 @@
       </c>
       <c r="AD257" s="150"/>
       <c r="AE257" s="155"/>
+      <c r="AF257" s="171" t="s">
+        <v>2932</v>
+      </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>500</v>
       </c>
@@ -32817,8 +34157,11 @@
       <c r="AE258" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF258" s="171" t="s">
+        <v>2933</v>
+      </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>2041</v>
       </c>
@@ -32908,8 +34251,11 @@
       <c r="AE259" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF259" s="171" t="s">
+        <v>2933</v>
+      </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>2048</v>
       </c>
@@ -32993,8 +34339,11 @@
       </c>
       <c r="AD260" s="150"/>
       <c r="AE260" s="155"/>
+      <c r="AF260" s="171" t="s">
+        <v>2933</v>
+      </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>1210</v>
       </c>
@@ -33084,8 +34433,11 @@
       <c r="AE261" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF261" s="171" t="s">
+        <v>2934</v>
+      </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>1215</v>
       </c>
@@ -33173,8 +34525,11 @@
       <c r="AE262" s="157" t="s">
         <v>176</v>
       </c>
+      <c r="AF262" s="171" t="s">
+        <v>2934</v>
+      </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>1217</v>
       </c>
@@ -33264,8 +34619,11 @@
       <c r="AE263" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF263" s="171" t="s">
+        <v>2934</v>
+      </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>828</v>
       </c>
@@ -33353,8 +34711,11 @@
       <c r="AE264" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF264" s="171" t="s">
+        <v>2935</v>
+      </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>2047</v>
       </c>
@@ -33444,8 +34805,11 @@
       <c r="AE265" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF265" s="171" t="s">
+        <v>2936</v>
+      </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>404</v>
       </c>
@@ -33531,8 +34895,11 @@
         <v>85</v>
       </c>
       <c r="AE266" s="155"/>
+      <c r="AF266" s="171" t="s">
+        <v>2936</v>
+      </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>1229</v>
       </c>
@@ -33616,8 +34983,11 @@
       </c>
       <c r="AD267" s="150"/>
       <c r="AE267" s="155"/>
+      <c r="AF267" s="171" t="s">
+        <v>2936</v>
+      </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>2046</v>
       </c>
@@ -33705,8 +35075,11 @@
       <c r="AE268" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF268" s="171" t="s">
+        <v>2936</v>
+      </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>1233</v>
       </c>
@@ -33798,8 +35171,11 @@
       <c r="AE269" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF269" s="171" t="s">
+        <v>2936</v>
+      </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>2045</v>
       </c>
@@ -33879,8 +35255,11 @@
         <v>85</v>
       </c>
       <c r="AE270" s="155"/>
+      <c r="AF270" s="171" t="s">
+        <v>2936</v>
+      </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>1177</v>
       </c>
@@ -33966,8 +35345,11 @@
       </c>
       <c r="AD271" s="150"/>
       <c r="AE271" s="155"/>
+      <c r="AF271" s="171" t="s">
+        <v>2937</v>
+      </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>2035</v>
       </c>
@@ -34045,8 +35427,11 @@
       <c r="AE272" s="157" t="s">
         <v>164</v>
       </c>
+      <c r="AF272" s="171" t="s">
+        <v>2938</v>
+      </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>2041</v>
       </c>
@@ -34128,8 +35513,11 @@
       <c r="AE273" s="157" t="s">
         <v>1252</v>
       </c>
+      <c r="AF273" s="171" t="s">
+        <v>2938</v>
+      </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>177</v>
       </c>
@@ -34203,8 +35591,11 @@
       </c>
       <c r="AD274" s="150"/>
       <c r="AE274" s="155"/>
+      <c r="AF274" s="171" t="s">
+        <v>2938</v>
+      </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>1257</v>
       </c>
@@ -34284,8 +35675,11 @@
       <c r="AE275" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF275" s="171" t="s">
+        <v>2938</v>
+      </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>322</v>
       </c>
@@ -34363,8 +35757,11 @@
       </c>
       <c r="AD276" s="150"/>
       <c r="AE276" s="155"/>
+      <c r="AF276" s="171" t="s">
+        <v>2938</v>
+      </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>468</v>
       </c>
@@ -34450,8 +35847,11 @@
       <c r="AE277" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF277" s="171" t="s">
+        <v>2938</v>
+      </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>912</v>
       </c>
@@ -34531,8 +35931,11 @@
       <c r="AE278" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF278" s="171" t="s">
+        <v>2939</v>
+      </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>198</v>
       </c>
@@ -34614,8 +36017,11 @@
       <c r="AE279" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF279" s="171" t="s">
+        <v>2939</v>
+      </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>468</v>
       </c>
@@ -34689,8 +36095,11 @@
       </c>
       <c r="AD280" s="150"/>
       <c r="AE280" s="155"/>
+      <c r="AF280" s="171" t="s">
+        <v>2940</v>
+      </c>
     </row>
-    <row r="281" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>336</v>
       </c>
@@ -34768,8 +36177,11 @@
       </c>
       <c r="AD281" s="150"/>
       <c r="AE281" s="155"/>
+      <c r="AF281" s="171" t="s">
+        <v>2940</v>
+      </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>204</v>
       </c>
@@ -34847,8 +36259,11 @@
         <v>40</v>
       </c>
       <c r="AE282" s="155"/>
+      <c r="AF282" s="171" t="s">
+        <v>2940</v>
+      </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>142</v>
       </c>
@@ -34926,8 +36341,11 @@
       </c>
       <c r="AD283" s="150"/>
       <c r="AE283" s="155"/>
+      <c r="AF283" s="171" t="s">
+        <v>2940</v>
+      </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>2046</v>
       </c>
@@ -35011,8 +36429,11 @@
       <c r="AE284" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF284" s="171" t="s">
+        <v>2940</v>
+      </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>165</v>
       </c>
@@ -35092,8 +36513,11 @@
       <c r="AE285" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF285" s="171" t="s">
+        <v>2940</v>
+      </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>1284</v>
       </c>
@@ -35173,8 +36597,11 @@
       <c r="AE286" s="157" t="s">
         <v>315</v>
       </c>
+      <c r="AF286" s="171" t="s">
+        <v>2941</v>
+      </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>2042</v>
       </c>
@@ -35256,8 +36683,11 @@
       <c r="AE287" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF287" s="171" t="s">
+        <v>2941</v>
+      </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>468</v>
       </c>
@@ -35341,8 +36771,11 @@
       <c r="AE288" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF288" s="171" t="s">
+        <v>2942</v>
+      </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>1167</v>
       </c>
@@ -35420,8 +36853,11 @@
       </c>
       <c r="AD289" s="150"/>
       <c r="AE289" s="155"/>
+      <c r="AF289" s="171" t="s">
+        <v>2942</v>
+      </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>2049</v>
       </c>
@@ -35501,8 +36937,11 @@
       <c r="AE290" s="157" t="s">
         <v>73</v>
       </c>
+      <c r="AF290" s="171" t="s">
+        <v>2942</v>
+      </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>1303</v>
       </c>
@@ -35582,8 +37021,11 @@
       <c r="AE291" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF291" s="171" t="s">
+        <v>2943</v>
+      </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>2048</v>
       </c>
@@ -35661,8 +37103,11 @@
       </c>
       <c r="AD292" s="150"/>
       <c r="AE292" s="155"/>
+      <c r="AF292" s="171" t="s">
+        <v>2943</v>
+      </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>204</v>
       </c>
@@ -35742,8 +37187,11 @@
       <c r="AE293" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF293" s="171" t="s">
+        <v>2944</v>
+      </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>74</v>
       </c>
@@ -35829,8 +37277,11 @@
       <c r="AE294" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF294" s="171" t="s">
+        <v>2944</v>
+      </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>42</v>
       </c>
@@ -35908,8 +37359,11 @@
       <c r="AE295" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF295" s="171" t="s">
+        <v>2944</v>
+      </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>2030</v>
       </c>
@@ -35995,8 +37449,11 @@
       <c r="AE296" s="157" t="s">
         <v>1322</v>
       </c>
+      <c r="AF296" s="171" t="s">
+        <v>2945</v>
+      </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>1323</v>
       </c>
@@ -36072,8 +37529,11 @@
       </c>
       <c r="AD297" s="151"/>
       <c r="AE297" s="156"/>
+      <c r="AF297" s="171" t="s">
+        <v>2945</v>
+      </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>142</v>
       </c>
@@ -36153,8 +37613,11 @@
       </c>
       <c r="AD298" s="151"/>
       <c r="AE298" s="156"/>
+      <c r="AF298" s="171" t="s">
+        <v>2946</v>
+      </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>1329</v>
       </c>
@@ -36232,8 +37695,11 @@
       </c>
       <c r="AD299" s="151"/>
       <c r="AE299" s="156"/>
+      <c r="AF299" s="171" t="s">
+        <v>2947</v>
+      </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>1332</v>
       </c>
@@ -36315,8 +37781,11 @@
       <c r="AE300" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF300" s="171" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>336</v>
       </c>
@@ -36402,8 +37871,11 @@
       <c r="AE301" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF301" s="171" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>1339</v>
       </c>
@@ -36485,8 +37957,11 @@
       <c r="AE302" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF302" s="171" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>30</v>
       </c>
@@ -36566,8 +38041,11 @@
       <c r="AE303" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF303" s="171" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>160</v>
       </c>
@@ -36651,8 +38129,11 @@
       <c r="AE304" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF304" s="171" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>854</v>
       </c>
@@ -36734,8 +38215,11 @@
       <c r="AE305" s="157" t="s">
         <v>1355</v>
       </c>
+      <c r="AF305" s="171" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>54</v>
       </c>
@@ -36819,8 +38303,11 @@
       <c r="AE306" s="157" t="s">
         <v>159</v>
       </c>
+      <c r="AF306" s="171" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>1357</v>
       </c>
@@ -36906,8 +38393,11 @@
       <c r="AE307" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF307" s="171" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>2050</v>
       </c>
@@ -36989,8 +38479,11 @@
         <v>72</v>
       </c>
       <c r="AE308" s="156"/>
+      <c r="AF308" s="171" t="s">
+        <v>2948</v>
+      </c>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>2027</v>
       </c>
@@ -37072,8 +38565,11 @@
       </c>
       <c r="AD309" s="151"/>
       <c r="AE309" s="156"/>
+      <c r="AF309" s="171" t="s">
+        <v>2949</v>
+      </c>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>404</v>
       </c>
@@ -37157,8 +38653,11 @@
       <c r="AE310" s="156" t="s">
         <v>315</v>
       </c>
+      <c r="AF310" s="171" t="s">
+        <v>2950</v>
+      </c>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>1370</v>
       </c>
@@ -37230,8 +38729,11 @@
       </c>
       <c r="AD311" s="151"/>
       <c r="AE311" s="156"/>
+      <c r="AF311" s="171" t="s">
+        <v>2950</v>
+      </c>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>297</v>
       </c>
@@ -37311,8 +38813,11 @@
       </c>
       <c r="AD312" s="151"/>
       <c r="AE312" s="156"/>
+      <c r="AF312" s="171" t="s">
+        <v>2950</v>
+      </c>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>204</v>
       </c>
@@ -37390,8 +38895,11 @@
       </c>
       <c r="AD313" s="151"/>
       <c r="AE313" s="156"/>
+      <c r="AF313" s="171" t="s">
+        <v>2951</v>
+      </c>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>2045</v>
       </c>
@@ -37469,8 +38977,11 @@
         <v>85</v>
       </c>
       <c r="AE314" s="156"/>
+      <c r="AF314" s="171" t="s">
+        <v>2951</v>
+      </c>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>54</v>
       </c>
@@ -37548,8 +39059,11 @@
       </c>
       <c r="AD315" s="151"/>
       <c r="AE315" s="156"/>
+      <c r="AF315" s="171" t="s">
+        <v>2951</v>
+      </c>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>261</v>
       </c>
@@ -37631,8 +39145,11 @@
         <v>1393</v>
       </c>
       <c r="AE316" s="156"/>
+      <c r="AF316" s="171" t="s">
+        <v>2952</v>
+      </c>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>325</v>
       </c>
@@ -37712,8 +39229,11 @@
       </c>
       <c r="AD317" s="151"/>
       <c r="AE317" s="156"/>
+      <c r="AF317" s="171" t="s">
+        <v>2952</v>
+      </c>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>1397</v>
       </c>
@@ -37797,8 +39317,11 @@
       <c r="AE318" s="156" t="s">
         <v>512</v>
       </c>
+      <c r="AF318" s="171" t="s">
+        <v>2952</v>
+      </c>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>142</v>
       </c>
@@ -37878,8 +39401,11 @@
       <c r="AE319" s="156" t="s">
         <v>525</v>
       </c>
+      <c r="AF319" s="171" t="s">
+        <v>2953</v>
+      </c>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>1403</v>
       </c>
@@ -37963,8 +39489,11 @@
       <c r="AE320" s="156" t="s">
         <v>1411</v>
       </c>
+      <c r="AF320" s="171" t="s">
+        <v>2953</v>
+      </c>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>468</v>
       </c>
@@ -38050,8 +39579,11 @@
         <v>72</v>
       </c>
       <c r="AE321" s="156"/>
+      <c r="AF321" s="171" t="s">
+        <v>2953</v>
+      </c>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>1415</v>
       </c>
@@ -38133,8 +39665,11 @@
         <v>85</v>
       </c>
       <c r="AE322" s="156"/>
+      <c r="AF322" s="171" t="s">
+        <v>2953</v>
+      </c>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>188</v>
       </c>
@@ -38216,8 +39751,11 @@
         <v>85</v>
       </c>
       <c r="AE323" s="156"/>
+      <c r="AF323" s="171" t="s">
+        <v>2954</v>
+      </c>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>722</v>
       </c>
@@ -38293,8 +39831,11 @@
       </c>
       <c r="AD324" s="151"/>
       <c r="AE324" s="156"/>
+      <c r="AF324" s="171" t="s">
+        <v>2954</v>
+      </c>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>2730</v>
       </c>
@@ -38374,8 +39915,11 @@
         <v>72</v>
       </c>
       <c r="AE325" s="156"/>
+      <c r="AF325" s="171" t="s">
+        <v>2954</v>
+      </c>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>1429</v>
       </c>
@@ -38457,8 +40001,11 @@
       <c r="AE326" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF326" s="171" t="s">
+        <v>2955</v>
+      </c>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>165</v>
       </c>
@@ -38537,8 +40084,11 @@
       </c>
       <c r="AD327" s="151"/>
       <c r="AE327" s="156"/>
+      <c r="AF327" s="171" t="s">
+        <v>2956</v>
+      </c>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>1436</v>
       </c>
@@ -38622,8 +40172,11 @@
       <c r="AE328" s="156" t="s">
         <v>1437</v>
       </c>
+      <c r="AF328" s="171" t="s">
+        <v>2956</v>
+      </c>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>1438</v>
       </c>
@@ -38707,8 +40260,11 @@
       <c r="AE329" s="156" t="s">
         <v>1443</v>
       </c>
+      <c r="AF329" s="171" t="s">
+        <v>2956</v>
+      </c>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>2031</v>
       </c>
@@ -38790,8 +40346,11 @@
         <v>85</v>
       </c>
       <c r="AE330" s="156"/>
+      <c r="AF330" s="171" t="s">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>614</v>
       </c>
@@ -38869,8 +40428,11 @@
       </c>
       <c r="AD331" s="151"/>
       <c r="AE331" s="156"/>
+      <c r="AF331" s="171" t="s">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>2030</v>
       </c>
@@ -38950,8 +40512,11 @@
       </c>
       <c r="AD332" s="151"/>
       <c r="AE332" s="156"/>
+      <c r="AF332" s="171" t="s">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>1451</v>
       </c>
@@ -39031,8 +40596,11 @@
       <c r="AE333" s="156" t="s">
         <v>1456</v>
       </c>
+      <c r="AF333" s="171" t="s">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>500</v>
       </c>
@@ -39114,8 +40682,11 @@
       <c r="AE334" s="156" t="s">
         <v>176</v>
       </c>
+      <c r="AF334" s="171" t="s">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>440</v>
       </c>
@@ -39193,8 +40764,11 @@
       </c>
       <c r="AD335" s="151"/>
       <c r="AE335" s="156"/>
+      <c r="AF335" s="171" t="s">
+        <v>2958</v>
+      </c>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>1217</v>
       </c>
@@ -39276,8 +40850,11 @@
         <v>72</v>
       </c>
       <c r="AE336" s="156"/>
+      <c r="AF336" s="171" t="s">
+        <v>2958</v>
+      </c>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>614</v>
       </c>
@@ -39359,8 +40936,11 @@
       <c r="AE337" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF337" s="171" t="s">
+        <v>2958</v>
+      </c>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>336</v>
       </c>
@@ -39440,8 +41020,11 @@
       </c>
       <c r="AD338" s="151"/>
       <c r="AE338" s="156"/>
+      <c r="AF338" s="171" t="s">
+        <v>2958</v>
+      </c>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>1470</v>
       </c>
@@ -39527,8 +41110,11 @@
       <c r="AE339" s="156" t="s">
         <v>1475</v>
       </c>
+      <c r="AF339" s="171" t="s">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>247</v>
       </c>
@@ -39608,8 +41194,11 @@
       </c>
       <c r="AD340" s="151"/>
       <c r="AE340" s="156"/>
+      <c r="AF340" s="171" t="s">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>1478</v>
       </c>
@@ -39687,8 +41276,11 @@
       </c>
       <c r="AD341" s="151"/>
       <c r="AE341" s="156"/>
+      <c r="AF341" s="171" t="s">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>2048</v>
       </c>
@@ -39766,8 +41358,11 @@
         <v>85</v>
       </c>
       <c r="AE342" s="156"/>
+      <c r="AF342" s="171" t="s">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>500</v>
       </c>
@@ -39845,8 +41440,11 @@
       </c>
       <c r="AD343" s="151"/>
       <c r="AE343" s="156"/>
+      <c r="AF343" s="171" t="s">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>2047</v>
       </c>
@@ -39922,8 +41520,11 @@
       </c>
       <c r="AD344" s="151"/>
       <c r="AE344" s="156"/>
+      <c r="AF344" s="171" t="s">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>2028</v>
       </c>
@@ -40003,8 +41604,11 @@
       </c>
       <c r="AD345" s="151"/>
       <c r="AE345" s="156"/>
+      <c r="AF345" s="171" t="s">
+        <v>2960</v>
+      </c>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>614</v>
       </c>
@@ -40086,8 +41690,11 @@
       </c>
       <c r="AD346" s="151"/>
       <c r="AE346" s="156"/>
+      <c r="AF346" s="171" t="s">
+        <v>2961</v>
+      </c>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>204</v>
       </c>
@@ -40163,8 +41770,11 @@
       </c>
       <c r="AD347" s="151"/>
       <c r="AE347" s="156"/>
+      <c r="AF347" s="171" t="s">
+        <v>2962</v>
+      </c>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>1499</v>
       </c>
@@ -40250,8 +41860,11 @@
       <c r="AE348" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF348" s="171" t="s">
+        <v>2963</v>
+      </c>
     </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>297</v>
       </c>
@@ -40333,8 +41946,11 @@
       </c>
       <c r="AD349" s="151"/>
       <c r="AE349" s="156"/>
+      <c r="AF349" s="171" t="s">
+        <v>2964</v>
+      </c>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>42</v>
       </c>
@@ -40410,8 +42026,11 @@
       </c>
       <c r="AD350" s="151"/>
       <c r="AE350" s="156"/>
+      <c r="AF350" s="171" t="s">
+        <v>2964</v>
+      </c>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>247</v>
       </c>
@@ -40493,8 +42112,11 @@
       </c>
       <c r="AD351" s="151"/>
       <c r="AE351" s="156"/>
+      <c r="AF351" s="171" t="s">
+        <v>2965</v>
+      </c>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>912</v>
       </c>
@@ -40576,8 +42198,11 @@
       </c>
       <c r="AD352" s="151"/>
       <c r="AE352" s="156"/>
+      <c r="AF352" s="171" t="s">
+        <v>2965</v>
+      </c>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>297</v>
       </c>
@@ -40657,8 +42282,11 @@
       </c>
       <c r="AD353" s="151"/>
       <c r="AE353" s="156"/>
+      <c r="AF353" s="171" t="s">
+        <v>2966</v>
+      </c>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>468</v>
       </c>
@@ -40740,8 +42368,11 @@
         <v>85</v>
       </c>
       <c r="AE354" s="156"/>
+      <c r="AF354" s="171" t="s">
+        <v>2967</v>
+      </c>
     </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>188</v>
       </c>
@@ -40821,8 +42452,11 @@
       <c r="AE355" s="156" t="s">
         <v>176</v>
       </c>
+      <c r="AF355" s="171" t="s">
+        <v>2968</v>
+      </c>
     </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>404</v>
       </c>
@@ -40898,8 +42532,11 @@
       </c>
       <c r="AD356" s="151"/>
       <c r="AE356" s="156"/>
+      <c r="AF356" s="171" t="s">
+        <v>2969</v>
+      </c>
     </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>1529</v>
       </c>
@@ -40985,8 +42622,11 @@
       <c r="AE357" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF357" s="171" t="s">
+        <v>2969</v>
+      </c>
     </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>2731</v>
       </c>
@@ -41064,8 +42704,11 @@
       </c>
       <c r="AD358" s="151"/>
       <c r="AE358" s="156"/>
+      <c r="AF358" s="171" t="s">
+        <v>2969</v>
+      </c>
     </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>404</v>
       </c>
@@ -41143,8 +42786,11 @@
       </c>
       <c r="AD359" s="151"/>
       <c r="AE359" s="156"/>
+      <c r="AF359" s="171" t="s">
+        <v>2970</v>
+      </c>
     </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>261</v>
       </c>
@@ -41226,8 +42872,11 @@
       <c r="AE360" s="156" t="s">
         <v>1545</v>
       </c>
+      <c r="AF360" s="171" t="s">
+        <v>2970</v>
+      </c>
     </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>42</v>
       </c>
@@ -41305,8 +42954,11 @@
       </c>
       <c r="AD361" s="151"/>
       <c r="AE361" s="156"/>
+      <c r="AF361" s="171" t="s">
+        <v>2971</v>
+      </c>
     </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>2732</v>
       </c>
@@ -41388,8 +43040,11 @@
       </c>
       <c r="AD362" s="151"/>
       <c r="AE362" s="156"/>
+      <c r="AF362" s="171" t="s">
+        <v>2971</v>
+      </c>
     </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>177</v>
       </c>
@@ -41469,8 +43124,11 @@
         <v>40</v>
       </c>
       <c r="AE363" s="156"/>
+      <c r="AF363" s="171" t="s">
+        <v>2971</v>
+      </c>
     </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>177</v>
       </c>
@@ -41546,8 +43204,11 @@
       </c>
       <c r="AD364" s="151"/>
       <c r="AE364" s="156"/>
+      <c r="AF364" s="171" t="s">
+        <v>2971</v>
+      </c>
     </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>54</v>
       </c>
@@ -41631,8 +43292,11 @@
       <c r="AE365" s="156" t="s">
         <v>41</v>
       </c>
+      <c r="AF365" s="171" t="s">
+        <v>2971</v>
+      </c>
     </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>2041</v>
       </c>
@@ -41716,8 +43380,11 @@
       <c r="AE366" s="156" t="s">
         <v>106</v>
       </c>
+      <c r="AF366" s="171" t="s">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>2733</v>
       </c>
@@ -41801,8 +43468,11 @@
       <c r="AE367" s="156" t="s">
         <v>1557</v>
       </c>
+      <c r="AF367" s="171" t="s">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>449</v>
       </c>
@@ -41880,8 +43550,11 @@
       </c>
       <c r="AD368" s="151"/>
       <c r="AE368" s="156"/>
+      <c r="AF368" s="171" t="s">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>1561</v>
       </c>
@@ -41961,8 +43634,11 @@
       </c>
       <c r="AD369" s="151"/>
       <c r="AE369" s="156"/>
+      <c r="AF369" s="171" t="s">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>1565</v>
       </c>
@@ -42040,8 +43716,11 @@
       </c>
       <c r="AD370" s="151"/>
       <c r="AE370" s="156"/>
+      <c r="AF370" s="171" t="s">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>2030</v>
       </c>
@@ -42125,8 +43804,11 @@
       </c>
       <c r="AD371" s="151"/>
       <c r="AE371" s="156"/>
+      <c r="AF371" s="171" t="s">
+        <v>2973</v>
+      </c>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>766</v>
       </c>
@@ -42208,8 +43890,11 @@
       <c r="AE372" s="156" t="s">
         <v>1575</v>
       </c>
+      <c r="AF372" s="171" t="s">
+        <v>2974</v>
+      </c>
     </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>2045</v>
       </c>
@@ -42289,8 +43974,11 @@
       </c>
       <c r="AD373" s="151"/>
       <c r="AE373" s="156"/>
+      <c r="AF373" s="171" t="s">
+        <v>2974</v>
+      </c>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>404</v>
       </c>
@@ -42368,8 +44056,11 @@
       </c>
       <c r="AD374" s="151"/>
       <c r="AE374" s="156"/>
+      <c r="AF374" s="171" t="s">
+        <v>2975</v>
+      </c>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>614</v>
       </c>
@@ -42449,8 +44140,11 @@
       </c>
       <c r="AD375" s="152"/>
       <c r="AE375" s="157"/>
+      <c r="AF375" s="171" t="s">
+        <v>2976</v>
+      </c>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>336</v>
       </c>
@@ -42532,8 +44226,11 @@
       </c>
       <c r="AD376" s="152"/>
       <c r="AE376" s="157"/>
+      <c r="AF376" s="171" t="s">
+        <v>2977</v>
+      </c>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>2734</v>
       </c>
@@ -42615,8 +44312,11 @@
         <v>72</v>
       </c>
       <c r="AE377" s="156"/>
+      <c r="AF377" s="171" t="s">
+        <v>2978</v>
+      </c>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>722</v>
       </c>
@@ -42700,8 +44400,11 @@
       <c r="AE378" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF378" s="171" t="s">
+        <v>2978</v>
+      </c>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>1451</v>
       </c>
@@ -42789,8 +44492,11 @@
         <v>85</v>
       </c>
       <c r="AE379" s="156"/>
+      <c r="AF379" s="171" t="s">
+        <v>2978</v>
+      </c>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>912</v>
       </c>
@@ -42870,8 +44576,11 @@
       </c>
       <c r="AD380" s="151"/>
       <c r="AE380" s="156"/>
+      <c r="AF380" s="171" t="s">
+        <v>2979</v>
+      </c>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>2028</v>
       </c>
@@ -42957,8 +44666,11 @@
         <v>72</v>
       </c>
       <c r="AE381" s="156"/>
+      <c r="AF381" s="171" t="s">
+        <v>2979</v>
+      </c>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>556</v>
       </c>
@@ -43042,8 +44754,11 @@
         <v>40</v>
       </c>
       <c r="AE382" s="156"/>
+      <c r="AF382" s="171" t="s">
+        <v>2980</v>
+      </c>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>204</v>
       </c>
@@ -43121,8 +44836,11 @@
         <v>85</v>
       </c>
       <c r="AE383" s="156"/>
+      <c r="AF383" s="171" t="s">
+        <v>2980</v>
+      </c>
     </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>1415</v>
       </c>
@@ -43204,8 +44922,11 @@
         <v>85</v>
       </c>
       <c r="AE384" s="156"/>
+      <c r="AF384" s="171" t="s">
+        <v>2981</v>
+      </c>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>1613</v>
       </c>
@@ -43289,8 +45010,11 @@
         <v>85</v>
       </c>
       <c r="AE385" s="156"/>
+      <c r="AF385" s="171" t="s">
+        <v>2982</v>
+      </c>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>920</v>
       </c>
@@ -43370,8 +45094,11 @@
       </c>
       <c r="AD386" s="151"/>
       <c r="AE386" s="156"/>
+      <c r="AF386" s="171" t="s">
+        <v>2982</v>
+      </c>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>728</v>
       </c>
@@ -43451,8 +45178,11 @@
       </c>
       <c r="AD387" s="151"/>
       <c r="AE387" s="156"/>
+      <c r="AF387" s="171" t="s">
+        <v>2983</v>
+      </c>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>948</v>
       </c>
@@ -43532,8 +45262,11 @@
         <v>72</v>
       </c>
       <c r="AE388" s="156"/>
+      <c r="AF388" s="171" t="s">
+        <v>2984</v>
+      </c>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>42</v>
       </c>
@@ -43613,8 +45346,11 @@
         <v>72</v>
       </c>
       <c r="AE389" s="156"/>
+      <c r="AF389" s="171" t="s">
+        <v>2960</v>
+      </c>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>1632</v>
       </c>
@@ -43692,8 +45428,11 @@
       </c>
       <c r="AD390" s="151"/>
       <c r="AE390" s="156"/>
+      <c r="AF390" s="171" t="s">
+        <v>2985</v>
+      </c>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>247</v>
       </c>
@@ -43773,8 +45512,11 @@
       </c>
       <c r="AD391" s="151"/>
       <c r="AE391" s="156"/>
+      <c r="AF391" s="171" t="s">
+        <v>2985</v>
+      </c>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>177</v>
       </c>
@@ -43852,8 +45594,11 @@
       </c>
       <c r="AD392" s="151"/>
       <c r="AE392" s="156"/>
+      <c r="AF392" s="171" t="s">
+        <v>2968</v>
+      </c>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>336</v>
       </c>
@@ -43933,8 +45678,11 @@
       </c>
       <c r="AD393" s="151"/>
       <c r="AE393" s="156"/>
+      <c r="AF393" s="171" t="s">
+        <v>2966</v>
+      </c>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>468</v>
       </c>
@@ -44016,8 +45764,11 @@
       <c r="AE394" s="156" t="s">
         <v>1648</v>
       </c>
+      <c r="AF394" s="171" t="s">
+        <v>2985</v>
+      </c>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>614</v>
       </c>
@@ -44103,8 +45854,11 @@
       <c r="AE395" s="156" t="s">
         <v>41</v>
       </c>
+      <c r="AF395" s="171" t="s">
+        <v>2952</v>
+      </c>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>1177</v>
       </c>
@@ -44186,8 +45940,11 @@
       </c>
       <c r="AD396" s="151"/>
       <c r="AE396" s="156"/>
+      <c r="AF396" s="171" t="s">
+        <v>2986</v>
+      </c>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>1046</v>
       </c>
@@ -44271,8 +46028,11 @@
         <v>85</v>
       </c>
       <c r="AE397" s="156"/>
+      <c r="AF397" s="171" t="s">
+        <v>2987</v>
+      </c>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>449</v>
       </c>
@@ -44358,8 +46118,11 @@
         <v>72</v>
       </c>
       <c r="AE398" s="156"/>
+      <c r="AF398" s="171" t="s">
+        <v>2987</v>
+      </c>
     </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>1656</v>
       </c>
@@ -44445,8 +46208,11 @@
         <v>85</v>
       </c>
       <c r="AE399" s="156"/>
+      <c r="AF399" s="171" t="s">
+        <v>2987</v>
+      </c>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>2051</v>
       </c>
@@ -44534,8 +46300,11 @@
       <c r="AE400" s="156" t="s">
         <v>41</v>
       </c>
+      <c r="AF400" s="171" t="s">
+        <v>2987</v>
+      </c>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>1664</v>
       </c>
@@ -44623,8 +46392,11 @@
       <c r="AE401" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF401" s="171" t="s">
+        <v>2988</v>
+      </c>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>614</v>
       </c>
@@ -44702,8 +46474,11 @@
       </c>
       <c r="AD402" s="151"/>
       <c r="AE402" s="156"/>
+      <c r="AF402" s="171" t="s">
+        <v>2989</v>
+      </c>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>1284</v>
       </c>
@@ -44791,8 +46566,11 @@
       <c r="AE403" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF403" s="171" t="s">
+        <v>2990</v>
+      </c>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>648</v>
       </c>
@@ -44878,8 +46656,11 @@
         <v>40</v>
       </c>
       <c r="AE404" s="156"/>
+      <c r="AF404" s="171" t="s">
+        <v>2990</v>
+      </c>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>912</v>
       </c>
@@ -44963,8 +46744,11 @@
         <v>40</v>
       </c>
       <c r="AE405" s="156"/>
+      <c r="AF405" s="171" t="s">
+        <v>2991</v>
+      </c>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>1682</v>
       </c>
@@ -45044,8 +46828,11 @@
       </c>
       <c r="AD406" s="151"/>
       <c r="AE406" s="156"/>
+      <c r="AF406" s="171" t="s">
+        <v>2992</v>
+      </c>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>404</v>
       </c>
@@ -45133,8 +46920,11 @@
         <v>72</v>
       </c>
       <c r="AE407" s="156"/>
+      <c r="AF407" s="171" t="s">
+        <v>2992</v>
+      </c>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>2735</v>
       </c>
@@ -45220,8 +47010,11 @@
         <v>72</v>
       </c>
       <c r="AE408" s="156"/>
+      <c r="AF408" s="170" t="s">
+        <v>2993</v>
+      </c>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>468</v>
       </c>
@@ -45309,8 +47102,11 @@
       <c r="AE409" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF409" s="170" t="s">
+        <v>2993</v>
+      </c>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>322</v>
       </c>
@@ -45398,8 +47194,11 @@
       <c r="AE410" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF410" s="170" t="s">
+        <v>2993</v>
+      </c>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>2736</v>
       </c>
@@ -45487,8 +47286,11 @@
       <c r="AE411" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF411" s="170" t="s">
+        <v>2993</v>
+      </c>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>332</v>
       </c>
@@ -45568,8 +47370,11 @@
       </c>
       <c r="AD412" s="150"/>
       <c r="AE412" s="155"/>
+      <c r="AF412" s="170" t="s">
+        <v>2994</v>
+      </c>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>322</v>
       </c>
@@ -45651,8 +47456,11 @@
       </c>
       <c r="AD413" s="150"/>
       <c r="AE413" s="155"/>
+      <c r="AF413" s="170" t="s">
+        <v>2995</v>
+      </c>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>2737</v>
       </c>
@@ -45734,8 +47542,11 @@
       </c>
       <c r="AD414" s="150"/>
       <c r="AE414" s="155"/>
+      <c r="AF414" s="170" t="s">
+        <v>2996</v>
+      </c>
     </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>2046</v>
       </c>
@@ -45815,8 +47626,11 @@
       </c>
       <c r="AD415" s="150"/>
       <c r="AE415" s="155"/>
+      <c r="AF415" s="170" t="s">
+        <v>2995</v>
+      </c>
     </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>728</v>
       </c>
@@ -45898,8 +47712,11 @@
         <v>85</v>
       </c>
       <c r="AE416" s="155"/>
+      <c r="AF416" s="170" t="s">
+        <v>2997</v>
+      </c>
     </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>322</v>
       </c>
@@ -45983,8 +47800,11 @@
       </c>
       <c r="AD417" s="150"/>
       <c r="AE417" s="155"/>
+      <c r="AF417" s="170" t="s">
+        <v>2998</v>
+      </c>
     </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>2738</v>
       </c>
@@ -46070,8 +47890,11 @@
         <v>85</v>
       </c>
       <c r="AE418" s="155"/>
+      <c r="AF418" s="170" t="s">
+        <v>2999</v>
+      </c>
     </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>920</v>
       </c>
@@ -46155,8 +47978,11 @@
       </c>
       <c r="AD419" s="150"/>
       <c r="AE419" s="155"/>
+      <c r="AF419" s="170" t="s">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>1726</v>
       </c>
@@ -46242,8 +48068,11 @@
         <v>40</v>
       </c>
       <c r="AE420" s="155"/>
+      <c r="AF420" s="170" t="s">
+        <v>2993</v>
+      </c>
     </row>
-    <row r="421" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>42</v>
       </c>
@@ -46325,8 +48154,11 @@
       </c>
       <c r="AD421" s="150"/>
       <c r="AE421" s="155"/>
+      <c r="AF421" s="170" t="s">
+        <v>2993</v>
+      </c>
     </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>2045</v>
       </c>
@@ -46412,8 +48244,11 @@
       </c>
       <c r="AD422" s="150"/>
       <c r="AE422" s="155"/>
+      <c r="AF422" s="170" t="s">
+        <v>2999</v>
+      </c>
     </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>404</v>
       </c>
@@ -46495,8 +48330,11 @@
       </c>
       <c r="AD423" s="150"/>
       <c r="AE423" s="155"/>
+      <c r="AF423" s="170" t="s">
+        <v>3001</v>
+      </c>
     </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>2052</v>
       </c>
@@ -46578,8 +48416,11 @@
       </c>
       <c r="AD424" s="150"/>
       <c r="AE424" s="155"/>
+      <c r="AF424" s="170" t="s">
+        <v>3002</v>
+      </c>
     </row>
-    <row r="425" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>1233</v>
       </c>
@@ -46655,8 +48496,11 @@
       </c>
       <c r="AD425" s="150"/>
       <c r="AE425" s="155"/>
+      <c r="AF425" s="172" t="s">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="426" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>142</v>
       </c>
@@ -46736,8 +48580,11 @@
       </c>
       <c r="AD426" s="150"/>
       <c r="AE426" s="155"/>
+      <c r="AF426" s="170" t="s">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="427" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>160</v>
       </c>
@@ -46813,8 +48660,11 @@
       </c>
       <c r="AD427" s="150"/>
       <c r="AE427" s="155"/>
+      <c r="AF427" s="172" t="s">
+        <v>3003</v>
+      </c>
     </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>1747</v>
       </c>
@@ -46888,8 +48738,11 @@
       </c>
       <c r="AD428" s="150"/>
       <c r="AE428" s="155"/>
+      <c r="AF428" s="172" t="s">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="429" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>780</v>
       </c>
@@ -46971,8 +48824,11 @@
       </c>
       <c r="AD429" s="150"/>
       <c r="AE429" s="155"/>
+      <c r="AF429" s="172" t="s">
+        <v>3004</v>
+      </c>
     </row>
-    <row r="430" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>1438</v>
       </c>
@@ -47058,8 +48914,11 @@
       <c r="AE430" s="156" t="s">
         <v>63</v>
       </c>
+      <c r="AF430" s="172" t="s">
+        <v>3005</v>
+      </c>
     </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>2053</v>
       </c>
@@ -47139,8 +48998,11 @@
         <v>40</v>
       </c>
       <c r="AE431" s="156"/>
+      <c r="AF431" s="172" t="s">
+        <v>3005</v>
+      </c>
     </row>
-    <row r="432" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>1529</v>
       </c>
@@ -47220,8 +49082,11 @@
       </c>
       <c r="AD432" s="150"/>
       <c r="AE432" s="155"/>
+      <c r="AF432" s="172" t="s">
+        <v>3005</v>
+      </c>
     </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>1229</v>
       </c>
@@ -47301,8 +49166,11 @@
       </c>
       <c r="AD433" s="150"/>
       <c r="AE433" s="155"/>
+      <c r="AF433" s="172" t="s">
+        <v>3005</v>
+      </c>
     </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>1451</v>
       </c>
@@ -47384,8 +49252,11 @@
         <v>40</v>
       </c>
       <c r="AE434" s="155"/>
+      <c r="AF434" s="172" t="s">
+        <v>3006</v>
+      </c>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>881</v>
       </c>
@@ -47465,8 +49336,11 @@
       </c>
       <c r="AD435" s="150"/>
       <c r="AE435" s="155"/>
+      <c r="AF435" s="170" t="s">
+        <v>3007</v>
+      </c>
     </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>887</v>
       </c>
@@ -47548,8 +49422,11 @@
       </c>
       <c r="AD436" s="150"/>
       <c r="AE436" s="155"/>
+      <c r="AF436" s="170" t="s">
+        <v>3008</v>
+      </c>
     </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>1772</v>
       </c>
@@ -47631,8 +49508,11 @@
       </c>
       <c r="AD437" s="150"/>
       <c r="AE437" s="155"/>
+      <c r="AF437" s="170" t="s">
+        <v>3009</v>
+      </c>
     </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>2047</v>
       </c>
@@ -47714,8 +49594,11 @@
       </c>
       <c r="AD438" s="150"/>
       <c r="AE438" s="155"/>
+      <c r="AF438" s="170" t="s">
+        <v>3010</v>
+      </c>
     </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>2739</v>
       </c>
@@ -47793,8 +49676,11 @@
       </c>
       <c r="AD439" s="150"/>
       <c r="AE439" s="155"/>
+      <c r="AF439" s="170" t="s">
+        <v>3011</v>
+      </c>
     </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>42</v>
       </c>
@@ -47874,8 +49760,11 @@
       </c>
       <c r="AD440" s="150"/>
       <c r="AE440" s="155"/>
+      <c r="AF440" s="170" t="s">
+        <v>3011</v>
+      </c>
     </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>2738</v>
       </c>
@@ -47951,8 +49840,11 @@
       </c>
       <c r="AD441" s="150"/>
       <c r="AE441" s="155"/>
+      <c r="AF441" s="170" t="s">
+        <v>3012</v>
+      </c>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>2740</v>
       </c>
@@ -48034,8 +49926,11 @@
         <v>40</v>
       </c>
       <c r="AE442" s="155"/>
+      <c r="AF442" s="170" t="s">
+        <v>3013</v>
+      </c>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>404</v>
       </c>
@@ -48117,8 +50012,11 @@
       <c r="AE443" s="157" t="s">
         <v>41</v>
       </c>
+      <c r="AF443" s="170" t="s">
+        <v>3014</v>
+      </c>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>2741</v>
       </c>
@@ -48198,8 +50096,11 @@
       </c>
       <c r="AD444" s="150"/>
       <c r="AE444" s="155"/>
+      <c r="AF444" s="170" t="s">
+        <v>2992</v>
+      </c>
     </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>1795</v>
       </c>
@@ -48281,8 +50182,11 @@
       </c>
       <c r="AD445" s="150"/>
       <c r="AE445" s="155"/>
+      <c r="AF445" s="170" t="s">
+        <v>3015</v>
+      </c>
     </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>468</v>
       </c>
@@ -48364,8 +50268,11 @@
       </c>
       <c r="AD446" s="150"/>
       <c r="AE446" s="155"/>
+      <c r="AF446" s="170" t="s">
+        <v>3016</v>
+      </c>
     </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>728</v>
       </c>
@@ -48447,8 +50354,11 @@
       </c>
       <c r="AD447" s="150"/>
       <c r="AE447" s="155"/>
+      <c r="AF447" s="170" t="s">
+        <v>3015</v>
+      </c>
     </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>2742</v>
       </c>
@@ -48526,8 +50436,11 @@
       </c>
       <c r="AD448" s="150"/>
       <c r="AE448" s="155"/>
+      <c r="AF448" s="170" t="s">
+        <v>3017</v>
+      </c>
     </row>
-    <row r="449" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>404</v>
       </c>
@@ -48609,8 +50522,11 @@
       </c>
       <c r="AD449" s="150"/>
       <c r="AE449" s="155"/>
+      <c r="AF449" s="170" t="s">
+        <v>3017</v>
+      </c>
     </row>
-    <row r="450" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>1217</v>
       </c>
@@ -48690,8 +50606,11 @@
       </c>
       <c r="AD450" s="150"/>
       <c r="AE450" s="155"/>
+      <c r="AF450" s="170" t="s">
+        <v>3015</v>
+      </c>
     </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>2743</v>
       </c>
@@ -48771,8 +50690,11 @@
       </c>
       <c r="AD451" s="150"/>
       <c r="AE451" s="155"/>
+      <c r="AF451" s="170" t="s">
+        <v>3014</v>
+      </c>
     </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>449</v>
       </c>
@@ -48848,8 +50770,11 @@
       </c>
       <c r="AD452" s="150"/>
       <c r="AE452" s="155"/>
+      <c r="AF452" s="170" t="s">
+        <v>3015</v>
+      </c>
     </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>2744</v>
       </c>
@@ -48933,8 +50858,11 @@
       <c r="AE453" s="157" t="s">
         <v>63</v>
       </c>
+      <c r="AF453" s="170" t="s">
+        <v>3015</v>
+      </c>
     </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>219</v>
       </c>
@@ -49010,8 +50938,11 @@
       </c>
       <c r="AD454" s="150"/>
       <c r="AE454" s="155"/>
+      <c r="AF454" s="170" t="s">
+        <v>2987</v>
+      </c>
     </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>474</v>
       </c>
@@ -49093,8 +51024,11 @@
       </c>
       <c r="AD455" s="150"/>
       <c r="AE455" s="155"/>
+      <c r="AF455" s="170" t="s">
+        <v>3018</v>
+      </c>
     </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>297</v>
       </c>
@@ -49174,8 +51108,11 @@
       </c>
       <c r="AD456" s="150"/>
       <c r="AE456" s="155"/>
+      <c r="AF456" s="170" t="s">
+        <v>3018</v>
+      </c>
     </row>
-    <row r="457" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>1828</v>
       </c>
@@ -49255,8 +51192,11 @@
       </c>
       <c r="AD457" s="150"/>
       <c r="AE457" s="155"/>
+      <c r="AF457" s="170" t="s">
+        <v>3019</v>
+      </c>
     </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>1215</v>
       </c>
@@ -49338,8 +51278,11 @@
       </c>
       <c r="AD458" s="150"/>
       <c r="AE458" s="155"/>
+      <c r="AF458" s="170" t="s">
+        <v>3017</v>
+      </c>
     </row>
-    <row r="459" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>728</v>
       </c>
@@ -49421,8 +51364,11 @@
       </c>
       <c r="AD459" s="150"/>
       <c r="AE459" s="155"/>
+      <c r="AF459" s="170" t="s">
+        <v>3020</v>
+      </c>
     </row>
-    <row r="460" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>1840</v>
       </c>
@@ -49502,8 +51448,11 @@
       </c>
       <c r="AD460" s="150"/>
       <c r="AE460" s="155"/>
+      <c r="AF460" s="170" t="s">
+        <v>3020</v>
+      </c>
     </row>
-    <row r="461" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>142</v>
       </c>
@@ -49585,8 +51534,11 @@
       </c>
       <c r="AD461" s="150"/>
       <c r="AE461" s="155"/>
+      <c r="AF461" s="170" t="s">
+        <v>3017</v>
+      </c>
     </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>468</v>
       </c>
@@ -49664,8 +51616,11 @@
       </c>
       <c r="AD462" s="150"/>
       <c r="AE462" s="155"/>
+      <c r="AF462" s="170" t="s">
+        <v>3017</v>
+      </c>
     </row>
-    <row r="463" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>1499</v>
       </c>
@@ -49741,8 +51696,11 @@
       </c>
       <c r="AD463" s="150"/>
       <c r="AE463" s="155"/>
+      <c r="AF463" s="170" t="s">
+        <v>3017</v>
+      </c>
     </row>
-    <row r="464" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>1429</v>
       </c>
@@ -49820,8 +51778,11 @@
       </c>
       <c r="AD464" s="150"/>
       <c r="AE464" s="155"/>
+      <c r="AF464" s="170" t="s">
+        <v>3017</v>
+      </c>
     </row>
-    <row r="465" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>424</v>
       </c>
@@ -49899,8 +51860,11 @@
       </c>
       <c r="AD465" s="150"/>
       <c r="AE465" s="155"/>
+      <c r="AF465" s="170" t="s">
+        <v>3020</v>
+      </c>
     </row>
-    <row r="466" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>404</v>
       </c>
@@ -49976,8 +51940,11 @@
       </c>
       <c r="AD466" s="150"/>
       <c r="AE466" s="155"/>
+      <c r="AF466" s="170" t="s">
+        <v>3020</v>
+      </c>
     </row>
-    <row r="467" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>2041</v>
       </c>
@@ -50057,8 +52024,11 @@
       </c>
       <c r="AD467" s="150"/>
       <c r="AE467" s="155"/>
+      <c r="AF467" s="170" t="s">
+        <v>3017</v>
+      </c>
     </row>
-    <row r="468" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>440</v>
       </c>
@@ -50136,8 +52106,11 @@
       <c r="AE468" s="157" t="s">
         <v>1860</v>
       </c>
+      <c r="AF468" s="170" t="s">
+        <v>3020</v>
+      </c>
     </row>
-    <row r="469" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>42</v>
       </c>
@@ -50217,8 +52190,11 @@
       <c r="AE469" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF469" s="170" t="s">
+        <v>3020</v>
+      </c>
     </row>
-    <row r="470" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>261</v>
       </c>
@@ -50300,8 +52276,11 @@
       <c r="AE470" s="157" t="s">
         <v>106</v>
       </c>
+      <c r="AF470" s="170" t="s">
+        <v>3020</v>
+      </c>
     </row>
-    <row r="471" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>2727</v>
       </c>
@@ -50383,8 +52362,11 @@
       </c>
       <c r="AD471" s="150"/>
       <c r="AE471" s="155"/>
+      <c r="AF471" s="170" t="s">
+        <v>3021</v>
+      </c>
     </row>
-    <row r="472" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>1869</v>
       </c>
@@ -50462,8 +52444,11 @@
       </c>
       <c r="AD472" s="150"/>
       <c r="AE472" s="155"/>
+      <c r="AF472" s="170" t="s">
+        <v>3022</v>
+      </c>
     </row>
-    <row r="473" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>272</v>
       </c>
@@ -50543,8 +52528,11 @@
       </c>
       <c r="AD473" s="150"/>
       <c r="AE473" s="155"/>
+      <c r="AF473" s="170" t="s">
+        <v>3023</v>
+      </c>
     </row>
-    <row r="474" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A474" s="6" t="s">
         <v>1876</v>
       </c>
@@ -50624,8 +52612,11 @@
       </c>
       <c r="AD474" s="150"/>
       <c r="AE474" s="155"/>
+      <c r="AF474" s="170" t="s">
+        <v>2998</v>
+      </c>
     </row>
-    <row r="475" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A475" s="6" t="s">
         <v>1881</v>
       </c>
@@ -50705,8 +52696,11 @@
       </c>
       <c r="AD475" s="150"/>
       <c r="AE475" s="155"/>
+      <c r="AF475" s="170" t="s">
+        <v>3021</v>
+      </c>
     </row>
-    <row r="476" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
         <v>1884</v>
       </c>
@@ -50786,8 +52780,11 @@
       </c>
       <c r="AD476" s="150"/>
       <c r="AE476" s="155"/>
+      <c r="AF476" s="170" t="s">
+        <v>3024</v>
+      </c>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>2054</v>
       </c>
@@ -50863,8 +52860,11 @@
       </c>
       <c r="AD477" s="150"/>
       <c r="AE477" s="155"/>
+      <c r="AF477" s="170" t="s">
+        <v>3025</v>
+      </c>
     </row>
-    <row r="478" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>1889</v>
       </c>
@@ -50942,8 +52942,11 @@
       </c>
       <c r="AD478" s="150"/>
       <c r="AE478" s="155"/>
+      <c r="AF478" s="170" t="s">
+        <v>3026</v>
+      </c>
     </row>
-    <row r="479" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>2055</v>
       </c>
@@ -51023,8 +53026,11 @@
       </c>
       <c r="AD479" s="150"/>
       <c r="AE479" s="155"/>
+      <c r="AF479" s="170" t="s">
+        <v>3025</v>
+      </c>
     </row>
-    <row r="480" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>297</v>
       </c>
@@ -51100,8 +53106,11 @@
       </c>
       <c r="AD480" s="150"/>
       <c r="AE480" s="155"/>
+      <c r="AF480" s="170" t="s">
+        <v>3027</v>
+      </c>
     </row>
-    <row r="481" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>474</v>
       </c>
@@ -51177,8 +53186,11 @@
       </c>
       <c r="AD481" s="1"/>
       <c r="AE481" s="1"/>
+      <c r="AF481" s="170" t="s">
+        <v>3024</v>
+      </c>
     </row>
-    <row r="482" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
         <v>1901</v>
       </c>
@@ -51252,8 +53264,11 @@
       </c>
       <c r="AD482" s="1"/>
       <c r="AE482" s="1"/>
+      <c r="AF482" s="170" t="s">
+        <v>3004</v>
+      </c>
     </row>
-    <row r="483" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>648</v>
       </c>
@@ -51331,8 +53346,11 @@
       </c>
       <c r="AD483" s="1"/>
       <c r="AE483" s="1"/>
+      <c r="AF483" s="170" t="s">
+        <v>3025</v>
+      </c>
     </row>
-    <row r="484" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>404</v>
       </c>
@@ -51412,8 +53430,11 @@
       </c>
       <c r="AD484" s="1"/>
       <c r="AE484" s="1"/>
+      <c r="AF484" s="170" t="s">
+        <v>3024</v>
+      </c>
     </row>
-    <row r="485" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>2028</v>
       </c>
@@ -51491,8 +53512,11 @@
       </c>
       <c r="AD485" s="1"/>
       <c r="AE485" s="1"/>
+      <c r="AF485" s="170" t="s">
+        <v>3025</v>
+      </c>
     </row>
-    <row r="486" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>1915</v>
       </c>
@@ -51572,8 +53596,11 @@
       </c>
       <c r="AD486" s="1"/>
       <c r="AE486" s="1"/>
+      <c r="AF486" s="170" t="s">
+        <v>3028</v>
+      </c>
     </row>
-    <row r="487" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
         <v>1919</v>
       </c>
@@ -51655,8 +53682,11 @@
       </c>
       <c r="AD487" s="1"/>
       <c r="AE487" s="1"/>
+      <c r="AF487" s="170" t="s">
+        <v>3025</v>
+      </c>
     </row>
-    <row r="488" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>474</v>
       </c>
@@ -51734,8 +53764,11 @@
       </c>
       <c r="AD488" s="1"/>
       <c r="AE488" s="1"/>
+      <c r="AF488" s="170" t="s">
+        <v>3022</v>
+      </c>
     </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>2746</v>
       </c>
@@ -51813,8 +53846,11 @@
       </c>
       <c r="AD489" s="1"/>
       <c r="AE489" s="1"/>
+      <c r="AF489" s="170" t="s">
+        <v>3029</v>
+      </c>
     </row>
-    <row r="490" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>881</v>
       </c>
@@ -51896,8 +53932,11 @@
       </c>
       <c r="AD490" s="1"/>
       <c r="AE490" s="1"/>
+      <c r="AF490" s="170" t="s">
+        <v>3030</v>
+      </c>
     </row>
-    <row r="491" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>322</v>
       </c>
@@ -51977,8 +54016,11 @@
       </c>
       <c r="AD491" s="1"/>
       <c r="AE491" s="1"/>
+      <c r="AF491" s="170" t="s">
+        <v>3031</v>
+      </c>
     </row>
-    <row r="492" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>42</v>
       </c>
@@ -52058,8 +54100,11 @@
       </c>
       <c r="AD492" s="1"/>
       <c r="AE492" s="1"/>
+      <c r="AF492" s="170" t="s">
+        <v>3032</v>
+      </c>
     </row>
-    <row r="493" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
         <v>1046</v>
       </c>
@@ -52137,8 +54182,11 @@
       </c>
       <c r="AD493" s="1"/>
       <c r="AE493" s="1"/>
+      <c r="AF493" s="170" t="s">
+        <v>3032</v>
+      </c>
     </row>
-    <row r="494" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>728</v>
       </c>
@@ -52218,8 +54266,11 @@
       </c>
       <c r="AD494" s="1"/>
       <c r="AE494" s="1"/>
+      <c r="AF494" s="170" t="s">
+        <v>3033</v>
+      </c>
     </row>
-    <row r="495" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>2047</v>
       </c>
@@ -52301,8 +54352,11 @@
       </c>
       <c r="AD495" s="1"/>
       <c r="AE495" s="1"/>
+      <c r="AF495" s="170" t="s">
+        <v>3022</v>
+      </c>
     </row>
-    <row r="496" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>930</v>
       </c>
@@ -52380,8 +54434,11 @@
       </c>
       <c r="AD496" s="1"/>
       <c r="AE496" s="1"/>
+      <c r="AF496" s="170" t="s">
+        <v>3033</v>
+      </c>
     </row>
-    <row r="497" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>177</v>
       </c>
@@ -52463,8 +54520,11 @@
       </c>
       <c r="AD497" s="1"/>
       <c r="AE497" s="1"/>
+      <c r="AF497" s="170" t="s">
+        <v>3034</v>
+      </c>
     </row>
-    <row r="498" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>1167</v>
       </c>
@@ -52542,8 +54602,11 @@
       </c>
       <c r="AD498" s="1"/>
       <c r="AE498" s="1"/>
+      <c r="AF498" s="170" t="s">
+        <v>3034</v>
+      </c>
     </row>
-    <row r="499" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>2047</v>
       </c>
@@ -52623,8 +54686,11 @@
       </c>
       <c r="AD499" s="1"/>
       <c r="AE499" s="1"/>
+      <c r="AF499" s="170" t="s">
+        <v>3035</v>
+      </c>
     </row>
-    <row r="500" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>2030</v>
       </c>
@@ -52706,8 +54772,11 @@
       </c>
       <c r="AD500" s="1"/>
       <c r="AE500" s="1"/>
+      <c r="AF500" s="170" t="s">
+        <v>3036</v>
+      </c>
     </row>
-    <row r="501" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>2047</v>
       </c>
@@ -52787,8 +54856,11 @@
       </c>
       <c r="AD501" s="1"/>
       <c r="AE501" s="1"/>
+      <c r="AF501" s="170" t="s">
+        <v>3037</v>
+      </c>
     </row>
-    <row r="502" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>881</v>
       </c>
@@ -52870,8 +54942,11 @@
       </c>
       <c r="AD502" s="1"/>
       <c r="AE502" s="1"/>
+      <c r="AF502" s="170" t="s">
+        <v>3035</v>
+      </c>
     </row>
-    <row r="503" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>1968</v>
       </c>
@@ -52953,8 +55028,11 @@
       </c>
       <c r="AD503" s="1"/>
       <c r="AE503" s="1"/>
+      <c r="AF503" s="170" t="s">
+        <v>3032</v>
+      </c>
     </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>468</v>
       </c>
@@ -53034,8 +55112,11 @@
       </c>
       <c r="AD504" s="1"/>
       <c r="AE504" s="1"/>
+      <c r="AF504" s="170" t="s">
+        <v>3038</v>
+      </c>
     </row>
-    <row r="505" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>478</v>
       </c>
@@ -53111,8 +55192,11 @@
       </c>
       <c r="AD505" s="1"/>
       <c r="AE505" s="1"/>
+      <c r="AF505" s="170" t="s">
+        <v>3038</v>
+      </c>
     </row>
-    <row r="506" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>1257</v>
       </c>
@@ -53190,8 +55274,11 @@
       </c>
       <c r="AD506" s="1"/>
       <c r="AE506" s="1"/>
+      <c r="AF506" s="170" t="s">
+        <v>3038</v>
+      </c>
     </row>
-    <row r="507" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>204</v>
       </c>
@@ -53267,8 +55354,11 @@
       </c>
       <c r="AD507" s="1"/>
       <c r="AE507" s="1"/>
+      <c r="AF507" s="170" t="s">
+        <v>3039</v>
+      </c>
     </row>
-    <row r="508" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>2738</v>
       </c>
@@ -53346,8 +55436,11 @@
       </c>
       <c r="AD508" s="1"/>
       <c r="AE508" s="1"/>
+      <c r="AF508" s="170" t="s">
+        <v>3039</v>
+      </c>
     </row>
-    <row r="509" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
         <v>1983</v>
       </c>
@@ -53427,8 +55520,11 @@
       </c>
       <c r="AD509" s="1"/>
       <c r="AE509" s="1"/>
+      <c r="AF509" s="170" t="s">
+        <v>3039</v>
+      </c>
     </row>
-    <row r="510" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>183</v>
       </c>
@@ -53504,8 +55600,11 @@
       </c>
       <c r="AD510" s="1"/>
       <c r="AE510" s="1"/>
+      <c r="AF510" s="170" t="s">
+        <v>3039</v>
+      </c>
     </row>
-    <row r="511" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>2046</v>
       </c>
@@ -53585,8 +55684,11 @@
       </c>
       <c r="AD511" s="1"/>
       <c r="AE511" s="1"/>
+      <c r="AF511" s="170" t="s">
+        <v>3039</v>
+      </c>
     </row>
-    <row r="512" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>2748</v>
       </c>
@@ -53664,8 +55766,11 @@
       </c>
       <c r="AD512" s="1"/>
       <c r="AE512" s="1"/>
+      <c r="AF512" s="170" t="s">
+        <v>3039</v>
+      </c>
     </row>
-    <row r="513" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>1177</v>
       </c>
@@ -53747,8 +55852,11 @@
       </c>
       <c r="AD513" s="1"/>
       <c r="AE513" s="1"/>
+      <c r="AF513" s="170" t="s">
+        <v>3040</v>
+      </c>
     </row>
-    <row r="514" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>2056</v>
       </c>
@@ -53826,8 +55934,11 @@
       </c>
       <c r="AD514" s="1"/>
       <c r="AE514" s="1"/>
+      <c r="AF514" s="170" t="s">
+        <v>3041</v>
+      </c>
     </row>
-    <row r="515" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
         <v>2733</v>
       </c>
@@ -53905,8 +56016,11 @@
       </c>
       <c r="AD515" s="1"/>
       <c r="AE515" s="1"/>
+      <c r="AF515" s="170" t="s">
+        <v>3042</v>
+      </c>
     </row>
-    <row r="516" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>142</v>
       </c>
@@ -53988,8 +56102,11 @@
       </c>
       <c r="AD516" s="1"/>
       <c r="AE516" s="1"/>
+      <c r="AF516" s="170" t="s">
+        <v>3043</v>
+      </c>
     </row>
-    <row r="517" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>728</v>
       </c>
@@ -54071,8 +56188,11 @@
       </c>
       <c r="AD517" s="1"/>
       <c r="AE517" s="1"/>
+      <c r="AF517" s="170" t="s">
+        <v>3043</v>
+      </c>
     </row>
-    <row r="518" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
         <v>722</v>
       </c>
@@ -54154,8 +56274,11 @@
       </c>
       <c r="AD518" s="1"/>
       <c r="AE518" s="1"/>
+      <c r="AF518" s="170" t="s">
+        <v>3044</v>
+      </c>
     </row>
-    <row r="519" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>912</v>
       </c>
@@ -54235,8 +56358,11 @@
       </c>
       <c r="AD519" s="1"/>
       <c r="AE519" s="1"/>
+      <c r="AF519" s="170" t="s">
+        <v>3043</v>
+      </c>
     </row>
-    <row r="520" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>500</v>
       </c>
@@ -54316,8 +56442,11 @@
       </c>
       <c r="AD520" s="1"/>
       <c r="AE520" s="1"/>
+      <c r="AF520" s="170" t="s">
+        <v>3043</v>
+      </c>
     </row>
-    <row r="521" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>322</v>
       </c>
@@ -54397,8 +56526,11 @@
       </c>
       <c r="AD521" s="1"/>
       <c r="AE521" s="1"/>
+      <c r="AF521" s="170" t="s">
+        <v>3045</v>
+      </c>
     </row>
-    <row r="522" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>424</v>
       </c>
@@ -54474,8 +56606,11 @@
       </c>
       <c r="AD522" s="1"/>
       <c r="AE522" s="1"/>
+      <c r="AF522" s="170" t="s">
+        <v>3046</v>
+      </c>
     </row>
-    <row r="523" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>500</v>
       </c>
@@ -54551,8 +56686,11 @@
       </c>
       <c r="AD523" s="1"/>
       <c r="AE523" s="1"/>
+      <c r="AF523" s="170" t="s">
+        <v>3039</v>
+      </c>
     </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>2015</v>
       </c>
@@ -54632,8 +56770,11 @@
       </c>
       <c r="AD524" s="1"/>
       <c r="AE524" s="1"/>
+      <c r="AF524" s="170" t="s">
+        <v>3039</v>
+      </c>
     </row>
-    <row r="525" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>2057</v>
       </c>
@@ -54713,8 +56854,11 @@
       </c>
       <c r="AD525" s="1"/>
       <c r="AE525" s="1"/>
+      <c r="AF525" s="170" t="s">
+        <v>3039</v>
+      </c>
     </row>
-    <row r="526" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>1397</v>
       </c>
@@ -54792,8 +56936,11 @@
       </c>
       <c r="AD526" s="1"/>
       <c r="AE526" s="1"/>
+      <c r="AF526" s="170" t="s">
+        <v>3047</v>
+      </c>
     </row>
-    <row r="527" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>1323</v>
       </c>
@@ -54869,8 +57016,11 @@
       </c>
       <c r="AD527" s="1"/>
       <c r="AE527" s="1"/>
+      <c r="AF527" s="170" t="s">
+        <v>3047</v>
+      </c>
     </row>
-    <row r="528" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>844</v>
       </c>
@@ -54948,8 +57098,11 @@
       </c>
       <c r="AD528" s="1"/>
       <c r="AE528" s="1"/>
+      <c r="AF528" s="170" t="s">
+        <v>3048</v>
+      </c>
     </row>
-    <row r="529" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>2028</v>
       </c>
@@ -55023,8 +57176,11 @@
       <c r="AC529" s="148" t="s">
         <v>328</v>
       </c>
+      <c r="AF529" s="171" t="s">
+        <v>3047</v>
+      </c>
     </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>297</v>
       </c>
@@ -55104,8 +57260,11 @@
       <c r="AC530" s="148" t="s">
         <v>664</v>
       </c>
+      <c r="AF530" s="171" t="s">
+        <v>3047</v>
+      </c>
     </row>
-    <row r="531" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
         <v>614</v>
       </c>
@@ -55185,8 +57344,11 @@
       <c r="AC531" s="148" t="s">
         <v>71</v>
       </c>
+      <c r="AF531" s="171" t="s">
+        <v>3047</v>
+      </c>
     </row>
-    <row r="532" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>2753</v>
       </c>
@@ -55262,8 +57424,11 @@
       <c r="AC532" s="148" t="s">
         <v>328</v>
       </c>
+      <c r="AF532" s="171" t="s">
+        <v>3047</v>
+      </c>
     </row>
-    <row r="533" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>468</v>
       </c>
@@ -55337,8 +57502,11 @@
       <c r="AC533" s="148" t="s">
         <v>71</v>
       </c>
+      <c r="AF533" s="171" t="s">
+        <v>3049</v>
+      </c>
     </row>
-    <row r="534" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
         <v>424</v>
       </c>
@@ -55412,8 +57580,11 @@
       <c r="AC534" s="148" t="s">
         <v>664</v>
       </c>
+      <c r="AF534" s="171" t="s">
+        <v>3049</v>
+      </c>
     </row>
-    <row r="535" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>844</v>
       </c>
@@ -55491,8 +57662,11 @@
       <c r="AC535" s="148" t="s">
         <v>71</v>
       </c>
+      <c r="AF535" s="171" t="s">
+        <v>3050</v>
+      </c>
     </row>
-    <row r="536" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>1329</v>
       </c>
@@ -55572,8 +57746,11 @@
       <c r="AC536" s="148" t="s">
         <v>71</v>
       </c>
+      <c r="AF536" s="171" t="s">
+        <v>3050</v>
+      </c>
     </row>
-    <row r="537" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>1983</v>
       </c>
@@ -55653,8 +57830,11 @@
       <c r="AC537" s="148" t="s">
         <v>71</v>
       </c>
+      <c r="AF537" s="171" t="s">
+        <v>3050</v>
+      </c>
     </row>
-    <row r="538" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>1167</v>
       </c>
@@ -55730,8 +57910,11 @@
       <c r="AC538" s="148" t="s">
         <v>71</v>
       </c>
+      <c r="AF538" s="171" t="s">
+        <v>3051</v>
+      </c>
     </row>
-    <row r="539" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>2761</v>
       </c>
@@ -55807,8 +57990,11 @@
       <c r="AC539" s="148" t="s">
         <v>71</v>
       </c>
+      <c r="AF539" s="171" t="s">
+        <v>3051</v>
+      </c>
     </row>
-    <row r="540" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>2045</v>
       </c>
@@ -55881,6 +58067,9 @@
       </c>
       <c r="AC540" s="148" t="s">
         <v>328</v>
+      </c>
+      <c r="AF540" s="171" t="s">
+        <v>3051</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/candidate.xlsx
+++ b/storage/app/candidate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7C98F-E06E-48D0-89E0-4500D6A1AD8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E161AD72-145F-4CFC-9D77-389890B2FEF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="3330" windowWidth="9660" windowHeight="6210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baza Uczestników 02.04.2021 — A" sheetId="1" r:id="rId1"/>
@@ -9277,9 +9277,6 @@
     <t>ZUS Zielona Góra</t>
   </si>
   <si>
-    <t>M1-W-022</t>
-  </si>
-  <si>
     <t>Igor Kosowicz</t>
   </si>
   <si>
@@ -9287,6 +9284,9 @@
   </si>
   <si>
     <t>05-05-2021</t>
+  </si>
+  <si>
+    <t>M1-W022</t>
   </si>
 </sst>
 </file>
@@ -10354,8 +10354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H537" sqref="H537"/>
+    <sheetView tabSelected="1" topLeftCell="O13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12717,7 +12717,7 @@
         <v>2687</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>3085</v>
+        <v>3088</v>
       </c>
       <c r="W26" s="4" t="s">
         <v>38</v>
@@ -56190,7 +56190,7 @@
         <v>52</v>
       </c>
       <c r="AB541" s="36" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="AC541" s="4" t="s">
         <v>71</v>
@@ -56270,7 +56270,7 @@
         <v>52</v>
       </c>
       <c r="AB542" s="36" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="AC542" s="4" t="s">
         <v>71</v>
@@ -56348,7 +56348,7 @@
         <v>52</v>
       </c>
       <c r="AB543" s="36" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="AC543" s="4" t="s">
         <v>71</v>
@@ -56424,7 +56424,7 @@
         <v>52</v>
       </c>
       <c r="AB544" s="36" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="AC544" s="4" t="s">
         <v>71</v>
@@ -56502,7 +56502,7 @@
         <v>38</v>
       </c>
       <c r="AB545" s="36" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="AC545" s="4" t="s">
         <v>327</v>
@@ -56578,7 +56578,7 @@
         <v>38</v>
       </c>
       <c r="AB546" s="36" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="AC546" s="4" t="s">
         <v>327</v>
@@ -56644,19 +56644,19 @@
         <v>38</v>
       </c>
       <c r="X547" s="4" t="s">
+        <v>3085</v>
+      </c>
+      <c r="Y547" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z547" s="21" t="s">
         <v>3086</v>
       </c>
-      <c r="Y547" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z547" s="21" t="s">
+      <c r="AA547" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB547" s="36" t="s">
         <v>3087</v>
-      </c>
-      <c r="AA547" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB547" s="36" t="s">
-        <v>3088</v>
       </c>
       <c r="AC547" s="4" t="s">
         <v>327</v>
@@ -56730,7 +56730,7 @@
         <v>52</v>
       </c>
       <c r="AB548" s="36" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="AC548" s="4" t="s">
         <v>71</v>

--- a/storage/app/candidate.xlsx
+++ b/storage/app/candidate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3866C18-8EFD-4F10-A9F1-05E3E4B34B6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D24156-22A2-4110-AD9E-A100F57AEF90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="8370" windowWidth="9660" windowHeight="6210" xr2:uid="{8D55E213-DD71-459B-A4FB-03542688079A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8D55E213-DD71-459B-A4FB-03542688079A}"/>
   </bookViews>
   <sheets>
     <sheet name="baza" sheetId="1" r:id="rId1"/>
@@ -9419,13 +9419,13 @@
     <t>Nodzykowska</t>
   </si>
   <si>
-    <t>employ_status_1</t>
-  </si>
-  <si>
     <t>5x10x2021</t>
   </si>
   <si>
     <t>13-05-2021</t>
+  </si>
+  <si>
+    <t>employ_status1</t>
   </si>
 </sst>
 </file>
@@ -10194,10 +10194,10 @@
   <dimension ref="A1:AF550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z542" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G542" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE545" sqref="AE545"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10290,7 +10290,7 @@
         <v>2935</v>
       </c>
       <c r="R1" s="104" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="S1" s="109" t="s">
         <v>2921</v>
@@ -58446,7 +58446,7 @@
       <c r="O549" s="86"/>
       <c r="P549" s="91"/>
       <c r="Q549" s="97" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="R549" s="99"/>
       <c r="S549" s="106"/>
@@ -58469,7 +58469,7 @@
         <v>1303</v>
       </c>
       <c r="AC549" s="160" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="AD549" s="161"/>
     </row>
@@ -58495,7 +58495,7 @@
       <c r="O550" s="86"/>
       <c r="P550" s="91"/>
       <c r="Q550" s="97" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="R550" s="99"/>
       <c r="S550" s="106"/>
@@ -58518,7 +58518,7 @@
         <v>1420</v>
       </c>
       <c r="AC550" s="160" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="AD550" s="161"/>
     </row>
